--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.338359460802735</v>
+        <v>2.338359460802508</v>
       </c>
       <c r="C2">
-        <v>1.66688681145115</v>
+        <v>1.666886811451548</v>
       </c>
       <c r="D2">
-        <v>0.2561122748780917</v>
+        <v>0.2561122748777649</v>
       </c>
       <c r="E2">
-        <v>0.1412723976040766</v>
+        <v>0.1412723976041761</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.613734193021344</v>
+        <v>9.613734193021401</v>
       </c>
       <c r="I2">
-        <v>0.02477774417431888</v>
+        <v>0.02477774417426737</v>
       </c>
       <c r="J2">
-        <v>0.9149605767063917</v>
+        <v>0.9149605767063207</v>
       </c>
       <c r="K2">
-        <v>0.4944100486508134</v>
+        <v>0.4944100486507992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.979104793209501</v>
+        <v>1.979104793209643</v>
       </c>
       <c r="C3">
-        <v>1.426162206529227</v>
+        <v>1.426162206529852</v>
       </c>
       <c r="D3">
-        <v>0.2203212125121752</v>
+        <v>0.2203212125121468</v>
       </c>
       <c r="E3">
-        <v>0.1213100373310674</v>
+        <v>0.1213100373309999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.383682081068486</v>
+        <v>8.383682081068514</v>
       </c>
       <c r="I3">
-        <v>0.02123461143267491</v>
+        <v>0.02123461143271044</v>
       </c>
       <c r="J3">
-        <v>0.7782371637079848</v>
+        <v>0.7782371637080274</v>
       </c>
       <c r="K3">
-        <v>0.4236398658802401</v>
+        <v>0.4236398658802187</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.769660791342289</v>
+        <v>1.769660791342233</v>
       </c>
       <c r="C4">
-        <v>1.283604247085577</v>
+        <v>1.28360424708552</v>
       </c>
       <c r="D4">
-        <v>0.199169667349878</v>
+        <v>0.1991696673501338</v>
       </c>
       <c r="E4">
-        <v>0.1095328590937008</v>
+        <v>0.1095328590937541</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.650898991890415</v>
+        <v>7.650898991890614</v>
       </c>
       <c r="I4">
-        <v>0.01914815752693677</v>
+        <v>0.01914815752694565</v>
       </c>
       <c r="J4">
-        <v>0.6979910487241838</v>
+        <v>0.6979910487242478</v>
       </c>
       <c r="K4">
-        <v>0.3818017036492805</v>
+        <v>0.3818017036492307</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.68665631070283</v>
+        <v>1.686656310702375</v>
       </c>
       <c r="C5">
-        <v>1.226605363721035</v>
+        <v>1.226605363721092</v>
       </c>
       <c r="D5">
-        <v>0.1907237644912243</v>
+        <v>0.1907237644912101</v>
       </c>
       <c r="E5">
-        <v>0.1048344288182328</v>
+        <v>0.1048344288183074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.35691477321302</v>
+        <v>7.356914773213049</v>
       </c>
       <c r="I5">
-        <v>0.01831660276007163</v>
+        <v>0.01831660276006986</v>
       </c>
       <c r="J5">
-        <v>0.6660675818877735</v>
+        <v>0.666067581887738</v>
       </c>
       <c r="K5">
-        <v>0.3650904453067412</v>
+        <v>0.3650904453067483</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.673003176460725</v>
+        <v>1.673003176460867</v>
       </c>
       <c r="C6">
-        <v>1.217200919911534</v>
+        <v>1.217200919912443</v>
       </c>
       <c r="D6">
-        <v>0.1893309176917626</v>
+        <v>0.1893309176919615</v>
       </c>
       <c r="E6">
-        <v>0.1040598282230114</v>
+        <v>0.1040598282229901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.308351579887784</v>
+        <v>7.308351579887812</v>
       </c>
       <c r="I6">
-        <v>0.01817955522682624</v>
+        <v>0.01817955522678716</v>
       </c>
       <c r="J6">
-        <v>0.660809630233139</v>
+        <v>0.6608096302331461</v>
       </c>
       <c r="K6">
-        <v>0.3623341825497732</v>
+        <v>0.3623341825498088</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.768532416505025</v>
+        <v>1.768532416504939</v>
       </c>
       <c r="C7">
-        <v>1.282831380582479</v>
+        <v>1.282831380582024</v>
       </c>
       <c r="D7">
-        <v>0.1990551012811324</v>
+        <v>0.1990551012816866</v>
       </c>
       <c r="E7">
-        <v>0.1094691099781251</v>
+        <v>0.1094691099781677</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.646916708007808</v>
+        <v>7.646916708007694</v>
       </c>
       <c r="I7">
-        <v>0.0191368716798852</v>
+        <v>0.01913687167993317</v>
       </c>
       <c r="J7">
-        <v>0.6975575553474158</v>
+        <v>0.6975575553473874</v>
       </c>
       <c r="K7">
-        <v>0.3815750430254354</v>
+        <v>0.3815750430254852</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211877828874265</v>
+        <v>2.211877828874549</v>
       </c>
       <c r="C8">
         <v>1.582648714307595</v>
       </c>
       <c r="D8">
-        <v>0.2435783840025323</v>
+        <v>0.2435783840017933</v>
       </c>
       <c r="E8">
-        <v>0.1342768644357619</v>
+        <v>0.1342768644356838</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>9.184282865443123</v>
       </c>
       <c r="I8">
-        <v>0.02353517109337488</v>
+        <v>0.0235351710933962</v>
       </c>
       <c r="J8">
-        <v>0.8669493071329555</v>
+        <v>0.8669493071330123</v>
       </c>
       <c r="K8">
-        <v>0.4696288629405956</v>
+        <v>0.4696288629406524</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.195134286801704</v>
+        <v>3.19513428680159</v>
       </c>
       <c r="C9">
-        <v>2.224720512922829</v>
+        <v>2.224720512923909</v>
       </c>
       <c r="D9">
-        <v>0.339299387754636</v>
+        <v>0.3392993877546076</v>
       </c>
       <c r="E9">
-        <v>0.1878302822012543</v>
+        <v>0.1878302822012827</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.43357748484408</v>
+        <v>12.43357748484414</v>
       </c>
       <c r="I9">
-        <v>0.03307264322108594</v>
+        <v>0.03307264322111081</v>
       </c>
       <c r="J9">
         <v>1.237071105345507</v>
       </c>
       <c r="K9">
-        <v>0.658890956555382</v>
+        <v>0.6588909565553678</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.033324971615968</v>
+        <v>4.03332497161631</v>
       </c>
       <c r="C10">
-        <v>2.752005141259644</v>
+        <v>2.752005141260724</v>
       </c>
       <c r="D10">
-        <v>0.4181216876759208</v>
+        <v>0.4181216876760061</v>
       </c>
       <c r="E10">
-        <v>0.232150766060542</v>
+        <v>0.2321507660606059</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.06428676802204</v>
+        <v>15.06428676802267</v>
       </c>
       <c r="I10">
-        <v>0.04100915200335642</v>
+        <v>0.041009152003328</v>
       </c>
       <c r="J10">
-        <v>1.54768996110333</v>
+        <v>1.547689961103373</v>
       </c>
       <c r="K10">
-        <v>0.8148711691231512</v>
+        <v>0.8148711691230943</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.454818212192947</v>
+        <v>4.45481821219272</v>
       </c>
       <c r="C11">
-        <v>3.011175436243946</v>
+        <v>3.011175436244287</v>
       </c>
       <c r="D11">
-        <v>0.4569009065306489</v>
+        <v>0.456900906530592</v>
       </c>
       <c r="E11">
-        <v>0.2540299901977292</v>
+        <v>0.2540299901977718</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0.0449416626882293</v>
       </c>
       <c r="J11">
-        <v>1.702425360752443</v>
+        <v>1.702425360752528</v>
       </c>
       <c r="K11">
-        <v>0.8916925740930282</v>
+        <v>0.8916925740930139</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.622015989197223</v>
+        <v>4.622015989197394</v>
       </c>
       <c r="C12">
         <v>3.112955203305546</v>
       </c>
       <c r="D12">
-        <v>0.4721337716577523</v>
+        <v>0.4721337716572691</v>
       </c>
       <c r="E12">
-        <v>0.262638004400003</v>
+        <v>0.2626380043999745</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.84689744124057</v>
+        <v>16.84689744124069</v>
       </c>
       <c r="I12">
-        <v>0.04649152036449067</v>
+        <v>0.04649152036427218</v>
       </c>
       <c r="J12">
-        <v>1.763554330196186</v>
+        <v>1.763554330196129</v>
       </c>
       <c r="K12">
-        <v>0.9218870046563694</v>
+        <v>0.9218870046562984</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.585633761975942</v>
+        <v>4.585633761975885</v>
       </c>
       <c r="C13">
-        <v>3.090856360136399</v>
+        <v>3.090856360136286</v>
       </c>
       <c r="D13">
         <v>0.4688262169738096</v>
       </c>
       <c r="E13">
-        <v>0.2607682631321211</v>
+        <v>0.2607682631320714</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>16.73817849619542</v>
       </c>
       <c r="I13">
-        <v>0.04615474738643321</v>
+        <v>0.04615474738648118</v>
       </c>
       <c r="J13">
-        <v>1.750264514575164</v>
+        <v>1.750264514575221</v>
       </c>
       <c r="K13">
-        <v>0.9153298716449996</v>
+        <v>0.9153298716450564</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.468408979511878</v>
+        <v>4.468408979511992</v>
       </c>
       <c r="C14">
-        <v>3.019470018223103</v>
+        <v>3.019470018223501</v>
       </c>
       <c r="D14">
-        <v>0.4581422524620393</v>
+        <v>0.4581422524619256</v>
       </c>
       <c r="E14">
-        <v>0.2547311787669315</v>
+        <v>0.2547311787668676</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.38660779900334</v>
+        <v>16.38660779900357</v>
       </c>
       <c r="I14">
-        <v>0.04506785359477306</v>
+        <v>0.045067853594837</v>
       </c>
       <c r="J14">
         <v>1.707399487407102</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.397657874197819</v>
+        <v>4.39765787419816</v>
       </c>
       <c r="C15">
         <v>2.97624811223443</v>
       </c>
       <c r="D15">
-        <v>0.4516739097905429</v>
+        <v>0.4516739097896902</v>
       </c>
       <c r="E15">
-        <v>0.2510780227805114</v>
+        <v>0.2510780227804474</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.17346674199962</v>
+        <v>16.17346674199956</v>
       </c>
       <c r="I15">
-        <v>0.04441051580663569</v>
+        <v>0.04441051580666411</v>
       </c>
       <c r="J15">
-        <v>1.681494850022702</v>
+        <v>1.681494850022673</v>
       </c>
       <c r="K15">
         <v>0.8813341474995724</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.006729257657241</v>
+        <v>4.006729257656957</v>
       </c>
       <c r="C16">
-        <v>2.735523580373183</v>
+        <v>2.735523580373297</v>
       </c>
       <c r="D16">
-        <v>0.4156561798671703</v>
+        <v>0.4156561798673408</v>
       </c>
       <c r="E16">
-        <v>0.2307613986032564</v>
+        <v>0.2307613986031498</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.98254014582903</v>
+        <v>14.98254014582864</v>
       </c>
       <c r="I16">
-        <v>0.04075975854911462</v>
+        <v>0.04075975854910752</v>
       </c>
       <c r="J16">
-        <v>1.537894977257039</v>
+        <v>1.537894977256968</v>
       </c>
       <c r="K16">
-        <v>0.8099890914339767</v>
+        <v>0.8099890914339483</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.778310164961511</v>
+        <v>3.778310164961965</v>
       </c>
       <c r="C17">
-        <v>2.593321282154363</v>
+        <v>2.593321282153795</v>
       </c>
       <c r="D17">
-        <v>0.3943876742735597</v>
+        <v>0.3943876742740144</v>
       </c>
       <c r="E17">
-        <v>0.2187843613159188</v>
+        <v>0.2187843613158122</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.27595442834843</v>
+        <v>14.27595442834891</v>
       </c>
       <c r="I17">
-        <v>0.0386114749510984</v>
+        <v>0.03861147495123873</v>
       </c>
       <c r="J17">
-        <v>1.453611274349441</v>
+        <v>1.453611274349527</v>
       </c>
       <c r="K17">
-        <v>0.767883568280503</v>
+        <v>0.7678835682805243</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.650576858730233</v>
+        <v>3.65057685872938</v>
       </c>
       <c r="C18">
-        <v>2.513282793720975</v>
+        <v>2.513282793719384</v>
       </c>
       <c r="D18">
-        <v>0.3824201041762194</v>
+        <v>0.3824201041764752</v>
       </c>
       <c r="E18">
-        <v>0.2120514646228457</v>
+        <v>0.2120514646228813</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.87723885758373</v>
+        <v>13.87723885758376</v>
       </c>
       <c r="I18">
-        <v>0.03740508091078709</v>
+        <v>0.03740508091084571</v>
       </c>
       <c r="J18">
-        <v>1.406352608229952</v>
+        <v>1.406352608230023</v>
       </c>
       <c r="K18">
-        <v>0.744198103597796</v>
+        <v>0.7441981035978884</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.60790921512762</v>
+        <v>3.607909215127961</v>
       </c>
       <c r="C19">
-        <v>2.486462227447646</v>
+        <v>2.48646222744776</v>
       </c>
       <c r="D19">
-        <v>0.3784104381355462</v>
+        <v>0.3784104381349351</v>
       </c>
       <c r="E19">
-        <v>0.2097966825799915</v>
+        <v>0.2097966825798636</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.74346629429451</v>
+        <v>13.74346629429442</v>
       </c>
       <c r="I19">
-        <v>0.03700127407517684</v>
+        <v>0.03700127407521592</v>
       </c>
       <c r="J19">
-        <v>1.390545741873524</v>
+        <v>1.390545741873581</v>
       </c>
       <c r="K19">
-        <v>0.7362634508215677</v>
+        <v>0.736263450821653</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.802237076337974</v>
+        <v>3.802237076338201</v>
       </c>
       <c r="C20">
-        <v>2.608272220788251</v>
+        <v>2.608272220788137</v>
       </c>
       <c r="D20">
-        <v>0.3966234673798397</v>
+        <v>0.3966234673794133</v>
       </c>
       <c r="E20">
         <v>0.2200427223214731</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.35035199054437</v>
+        <v>14.35035199054443</v>
       </c>
       <c r="I20">
-        <v>0.03883704767354601</v>
+        <v>0.038837047673562</v>
       </c>
       <c r="J20">
-        <v>1.462453507803531</v>
+        <v>1.462453507803474</v>
       </c>
       <c r="K20">
-        <v>0.772309038972125</v>
+        <v>0.7723090389721534</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.502617238046412</v>
+        <v>4.502617238046184</v>
       </c>
       <c r="C21">
-        <v>3.040330845647873</v>
+        <v>3.040330845646736</v>
       </c>
       <c r="D21">
-        <v>0.4612642828473668</v>
+        <v>0.4612642828481626</v>
       </c>
       <c r="E21">
-        <v>0.2564949204323881</v>
+        <v>0.2564949204324449</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.48940433914061</v>
+        <v>16.48940433914055</v>
       </c>
       <c r="I21">
-        <v>0.0453853136640241</v>
+        <v>0.04538531366408627</v>
       </c>
       <c r="J21">
-        <v>1.719915359618867</v>
+        <v>1.719915359618895</v>
       </c>
       <c r="K21">
-        <v>0.9003405043185637</v>
+        <v>0.9003405043185353</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.005944577027094</v>
+        <v>5.005944577027265</v>
       </c>
       <c r="C22">
-        <v>3.344553044733516</v>
+        <v>3.344553044733402</v>
       </c>
       <c r="D22">
-        <v>0.5068002084168768</v>
+        <v>0.5068002084167915</v>
       </c>
       <c r="E22">
-        <v>0.2822569290489554</v>
+        <v>0.2822569290490478</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.98298879088048</v>
+        <v>17.98298879088077</v>
       </c>
       <c r="I22">
-        <v>0.05002959207318902</v>
+        <v>0.05002959207322277</v>
       </c>
       <c r="J22">
-        <v>1.903404914620495</v>
+        <v>1.903404914620381</v>
       </c>
       <c r="K22">
         <v>0.990645182507464</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.732358050677988</v>
+        <v>4.732358050677874</v>
       </c>
       <c r="C23">
-        <v>3.179815085671464</v>
+        <v>3.179815085671635</v>
       </c>
       <c r="D23">
-        <v>0.4821411247480683</v>
+        <v>0.4821411247481251</v>
       </c>
       <c r="E23">
-        <v>0.2682973384676259</v>
+        <v>0.268297338467697</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.17549269770126</v>
+        <v>17.17549269770109</v>
       </c>
       <c r="I23">
-        <v>0.04751130419152005</v>
+        <v>0.04751130419161242</v>
       </c>
       <c r="J23">
-        <v>1.803820631557414</v>
+        <v>1.803820631557457</v>
       </c>
       <c r="K23">
-        <v>0.9417295406211252</v>
+        <v>0.9417295406211679</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791408671335091</v>
+        <v>3.791408671335319</v>
       </c>
       <c r="C24">
-        <v>2.601507618673111</v>
+        <v>2.601507618672656</v>
       </c>
       <c r="D24">
-        <v>0.395611864549096</v>
+        <v>0.3956118645497781</v>
       </c>
       <c r="E24">
-        <v>0.219473346521589</v>
+        <v>0.2194733465216174</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.31669372510919</v>
+        <v>14.31669372510933</v>
       </c>
       <c r="I24">
-        <v>0.03873497791675362</v>
+        <v>0.03873497791672698</v>
       </c>
       <c r="J24">
-        <v>1.458452247548081</v>
+        <v>1.458452247548095</v>
       </c>
       <c r="K24">
-        <v>0.7703066774638714</v>
+        <v>0.7703066774639495</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.912859209792146</v>
+        <v>2.912859209792316</v>
       </c>
       <c r="C25">
-        <v>2.043229572708981</v>
+        <v>2.043229572709095</v>
       </c>
       <c r="D25">
-        <v>0.3122049476635738</v>
+        <v>0.3122049476640854</v>
       </c>
       <c r="E25">
-        <v>0.1726417234431494</v>
+        <v>0.17264172344305</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.52049571663105</v>
+        <v>11.5204957166309</v>
       </c>
       <c r="I25">
-        <v>0.03036183571213336</v>
+        <v>0.0303618357122204</v>
       </c>
       <c r="J25">
         <v>1.131507251430463</v>
       </c>
       <c r="K25">
-        <v>0.605310710415452</v>
+        <v>0.6053107104153952</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.338359460802508</v>
+        <v>2.338359460802735</v>
       </c>
       <c r="C2">
-        <v>1.666886811451548</v>
+        <v>1.66688681145115</v>
       </c>
       <c r="D2">
-        <v>0.2561122748777649</v>
+        <v>0.2561122748780917</v>
       </c>
       <c r="E2">
-        <v>0.1412723976041761</v>
+        <v>0.1412723976040766</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.613734193021401</v>
+        <v>9.613734193021344</v>
       </c>
       <c r="I2">
-        <v>0.02477774417426737</v>
+        <v>0.02477774417431888</v>
       </c>
       <c r="J2">
-        <v>0.9149605767063207</v>
+        <v>0.9149605767063917</v>
       </c>
       <c r="K2">
-        <v>0.4944100486507992</v>
+        <v>0.4944100486508134</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.979104793209643</v>
+        <v>1.979104793209501</v>
       </c>
       <c r="C3">
-        <v>1.426162206529852</v>
+        <v>1.426162206529227</v>
       </c>
       <c r="D3">
-        <v>0.2203212125121468</v>
+        <v>0.2203212125121752</v>
       </c>
       <c r="E3">
-        <v>0.1213100373309999</v>
+        <v>0.1213100373310674</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.383682081068514</v>
+        <v>8.383682081068486</v>
       </c>
       <c r="I3">
-        <v>0.02123461143271044</v>
+        <v>0.02123461143267491</v>
       </c>
       <c r="J3">
-        <v>0.7782371637080274</v>
+        <v>0.7782371637079848</v>
       </c>
       <c r="K3">
-        <v>0.4236398658802187</v>
+        <v>0.4236398658802401</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.769660791342233</v>
+        <v>1.769660791342289</v>
       </c>
       <c r="C4">
-        <v>1.28360424708552</v>
+        <v>1.283604247085577</v>
       </c>
       <c r="D4">
-        <v>0.1991696673501338</v>
+        <v>0.199169667349878</v>
       </c>
       <c r="E4">
-        <v>0.1095328590937541</v>
+        <v>0.1095328590937008</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.650898991890614</v>
+        <v>7.650898991890415</v>
       </c>
       <c r="I4">
-        <v>0.01914815752694565</v>
+        <v>0.01914815752693677</v>
       </c>
       <c r="J4">
-        <v>0.6979910487242478</v>
+        <v>0.6979910487241838</v>
       </c>
       <c r="K4">
-        <v>0.3818017036492307</v>
+        <v>0.3818017036492805</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.686656310702375</v>
+        <v>1.68665631070283</v>
       </c>
       <c r="C5">
-        <v>1.226605363721092</v>
+        <v>1.226605363721035</v>
       </c>
       <c r="D5">
-        <v>0.1907237644912101</v>
+        <v>0.1907237644912243</v>
       </c>
       <c r="E5">
-        <v>0.1048344288183074</v>
+        <v>0.1048344288182328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.356914773213049</v>
+        <v>7.35691477321302</v>
       </c>
       <c r="I5">
-        <v>0.01831660276006986</v>
+        <v>0.01831660276007163</v>
       </c>
       <c r="J5">
-        <v>0.666067581887738</v>
+        <v>0.6660675818877735</v>
       </c>
       <c r="K5">
-        <v>0.3650904453067483</v>
+        <v>0.3650904453067412</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.673003176460867</v>
+        <v>1.673003176460725</v>
       </c>
       <c r="C6">
-        <v>1.217200919912443</v>
+        <v>1.217200919911534</v>
       </c>
       <c r="D6">
-        <v>0.1893309176919615</v>
+        <v>0.1893309176917626</v>
       </c>
       <c r="E6">
-        <v>0.1040598282229901</v>
+        <v>0.1040598282230114</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.308351579887812</v>
+        <v>7.308351579887784</v>
       </c>
       <c r="I6">
-        <v>0.01817955522678716</v>
+        <v>0.01817955522682624</v>
       </c>
       <c r="J6">
-        <v>0.6608096302331461</v>
+        <v>0.660809630233139</v>
       </c>
       <c r="K6">
-        <v>0.3623341825498088</v>
+        <v>0.3623341825497732</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.768532416504939</v>
+        <v>1.768532416505025</v>
       </c>
       <c r="C7">
-        <v>1.282831380582024</v>
+        <v>1.282831380582479</v>
       </c>
       <c r="D7">
-        <v>0.1990551012816866</v>
+        <v>0.1990551012811324</v>
       </c>
       <c r="E7">
-        <v>0.1094691099781677</v>
+        <v>0.1094691099781251</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.646916708007694</v>
+        <v>7.646916708007808</v>
       </c>
       <c r="I7">
-        <v>0.01913687167993317</v>
+        <v>0.0191368716798852</v>
       </c>
       <c r="J7">
-        <v>0.6975575553473874</v>
+        <v>0.6975575553474158</v>
       </c>
       <c r="K7">
-        <v>0.3815750430254852</v>
+        <v>0.3815750430254354</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211877828874549</v>
+        <v>2.211877828874265</v>
       </c>
       <c r="C8">
         <v>1.582648714307595</v>
       </c>
       <c r="D8">
-        <v>0.2435783840017933</v>
+        <v>0.2435783840025323</v>
       </c>
       <c r="E8">
-        <v>0.1342768644356838</v>
+        <v>0.1342768644357619</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>9.184282865443123</v>
       </c>
       <c r="I8">
-        <v>0.0235351710933962</v>
+        <v>0.02353517109337488</v>
       </c>
       <c r="J8">
-        <v>0.8669493071330123</v>
+        <v>0.8669493071329555</v>
       </c>
       <c r="K8">
-        <v>0.4696288629406524</v>
+        <v>0.4696288629405956</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.19513428680159</v>
+        <v>3.195134286801704</v>
       </c>
       <c r="C9">
-        <v>2.224720512923909</v>
+        <v>2.224720512922829</v>
       </c>
       <c r="D9">
-        <v>0.3392993877546076</v>
+        <v>0.339299387754636</v>
       </c>
       <c r="E9">
-        <v>0.1878302822012827</v>
+        <v>0.1878302822012543</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.43357748484414</v>
+        <v>12.43357748484408</v>
       </c>
       <c r="I9">
-        <v>0.03307264322111081</v>
+        <v>0.03307264322108594</v>
       </c>
       <c r="J9">
         <v>1.237071105345507</v>
       </c>
       <c r="K9">
-        <v>0.6588909565553678</v>
+        <v>0.658890956555382</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.03332497161631</v>
+        <v>4.033324971615968</v>
       </c>
       <c r="C10">
-        <v>2.752005141260724</v>
+        <v>2.752005141259644</v>
       </c>
       <c r="D10">
-        <v>0.4181216876760061</v>
+        <v>0.4181216876759208</v>
       </c>
       <c r="E10">
-        <v>0.2321507660606059</v>
+        <v>0.232150766060542</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.06428676802267</v>
+        <v>15.06428676802204</v>
       </c>
       <c r="I10">
-        <v>0.041009152003328</v>
+        <v>0.04100915200335642</v>
       </c>
       <c r="J10">
-        <v>1.547689961103373</v>
+        <v>1.54768996110333</v>
       </c>
       <c r="K10">
-        <v>0.8148711691230943</v>
+        <v>0.8148711691231512</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.45481821219272</v>
+        <v>4.454818212192947</v>
       </c>
       <c r="C11">
-        <v>3.011175436244287</v>
+        <v>3.011175436243946</v>
       </c>
       <c r="D11">
-        <v>0.456900906530592</v>
+        <v>0.4569009065306489</v>
       </c>
       <c r="E11">
-        <v>0.2540299901977718</v>
+        <v>0.2540299901977292</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0.0449416626882293</v>
       </c>
       <c r="J11">
-        <v>1.702425360752528</v>
+        <v>1.702425360752443</v>
       </c>
       <c r="K11">
-        <v>0.8916925740930139</v>
+        <v>0.8916925740930282</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.622015989197394</v>
+        <v>4.622015989197223</v>
       </c>
       <c r="C12">
         <v>3.112955203305546</v>
       </c>
       <c r="D12">
-        <v>0.4721337716572691</v>
+        <v>0.4721337716577523</v>
       </c>
       <c r="E12">
-        <v>0.2626380043999745</v>
+        <v>0.262638004400003</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.84689744124069</v>
+        <v>16.84689744124057</v>
       </c>
       <c r="I12">
-        <v>0.04649152036427218</v>
+        <v>0.04649152036449067</v>
       </c>
       <c r="J12">
-        <v>1.763554330196129</v>
+        <v>1.763554330196186</v>
       </c>
       <c r="K12">
-        <v>0.9218870046562984</v>
+        <v>0.9218870046563694</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.585633761975885</v>
+        <v>4.585633761975942</v>
       </c>
       <c r="C13">
-        <v>3.090856360136286</v>
+        <v>3.090856360136399</v>
       </c>
       <c r="D13">
         <v>0.4688262169738096</v>
       </c>
       <c r="E13">
-        <v>0.2607682631320714</v>
+        <v>0.2607682631321211</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>16.73817849619542</v>
       </c>
       <c r="I13">
-        <v>0.04615474738648118</v>
+        <v>0.04615474738643321</v>
       </c>
       <c r="J13">
-        <v>1.750264514575221</v>
+        <v>1.750264514575164</v>
       </c>
       <c r="K13">
-        <v>0.9153298716450564</v>
+        <v>0.9153298716449996</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.468408979511992</v>
+        <v>4.468408979511878</v>
       </c>
       <c r="C14">
-        <v>3.019470018223501</v>
+        <v>3.019470018223103</v>
       </c>
       <c r="D14">
-        <v>0.4581422524619256</v>
+        <v>0.4581422524620393</v>
       </c>
       <c r="E14">
-        <v>0.2547311787668676</v>
+        <v>0.2547311787669315</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.38660779900357</v>
+        <v>16.38660779900334</v>
       </c>
       <c r="I14">
-        <v>0.045067853594837</v>
+        <v>0.04506785359477306</v>
       </c>
       <c r="J14">
         <v>1.707399487407102</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.39765787419816</v>
+        <v>4.397657874197819</v>
       </c>
       <c r="C15">
         <v>2.97624811223443</v>
       </c>
       <c r="D15">
-        <v>0.4516739097896902</v>
+        <v>0.4516739097905429</v>
       </c>
       <c r="E15">
-        <v>0.2510780227804474</v>
+        <v>0.2510780227805114</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.17346674199956</v>
+        <v>16.17346674199962</v>
       </c>
       <c r="I15">
-        <v>0.04441051580666411</v>
+        <v>0.04441051580663569</v>
       </c>
       <c r="J15">
-        <v>1.681494850022673</v>
+        <v>1.681494850022702</v>
       </c>
       <c r="K15">
         <v>0.8813341474995724</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.006729257656957</v>
+        <v>4.006729257657241</v>
       </c>
       <c r="C16">
-        <v>2.735523580373297</v>
+        <v>2.735523580373183</v>
       </c>
       <c r="D16">
-        <v>0.4156561798673408</v>
+        <v>0.4156561798671703</v>
       </c>
       <c r="E16">
-        <v>0.2307613986031498</v>
+        <v>0.2307613986032564</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.98254014582864</v>
+        <v>14.98254014582903</v>
       </c>
       <c r="I16">
-        <v>0.04075975854910752</v>
+        <v>0.04075975854911462</v>
       </c>
       <c r="J16">
-        <v>1.537894977256968</v>
+        <v>1.537894977257039</v>
       </c>
       <c r="K16">
-        <v>0.8099890914339483</v>
+        <v>0.8099890914339767</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.778310164961965</v>
+        <v>3.778310164961511</v>
       </c>
       <c r="C17">
-        <v>2.593321282153795</v>
+        <v>2.593321282154363</v>
       </c>
       <c r="D17">
-        <v>0.3943876742740144</v>
+        <v>0.3943876742735597</v>
       </c>
       <c r="E17">
-        <v>0.2187843613158122</v>
+        <v>0.2187843613159188</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.27595442834891</v>
+        <v>14.27595442834843</v>
       </c>
       <c r="I17">
-        <v>0.03861147495123873</v>
+        <v>0.0386114749510984</v>
       </c>
       <c r="J17">
-        <v>1.453611274349527</v>
+        <v>1.453611274349441</v>
       </c>
       <c r="K17">
-        <v>0.7678835682805243</v>
+        <v>0.767883568280503</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.65057685872938</v>
+        <v>3.650576858730233</v>
       </c>
       <c r="C18">
-        <v>2.513282793719384</v>
+        <v>2.513282793720975</v>
       </c>
       <c r="D18">
-        <v>0.3824201041764752</v>
+        <v>0.3824201041762194</v>
       </c>
       <c r="E18">
-        <v>0.2120514646228813</v>
+        <v>0.2120514646228457</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.87723885758376</v>
+        <v>13.87723885758373</v>
       </c>
       <c r="I18">
-        <v>0.03740508091084571</v>
+        <v>0.03740508091078709</v>
       </c>
       <c r="J18">
-        <v>1.406352608230023</v>
+        <v>1.406352608229952</v>
       </c>
       <c r="K18">
-        <v>0.7441981035978884</v>
+        <v>0.744198103597796</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.607909215127961</v>
+        <v>3.60790921512762</v>
       </c>
       <c r="C19">
-        <v>2.48646222744776</v>
+        <v>2.486462227447646</v>
       </c>
       <c r="D19">
-        <v>0.3784104381349351</v>
+        <v>0.3784104381355462</v>
       </c>
       <c r="E19">
-        <v>0.2097966825798636</v>
+        <v>0.2097966825799915</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.74346629429442</v>
+        <v>13.74346629429451</v>
       </c>
       <c r="I19">
-        <v>0.03700127407521592</v>
+        <v>0.03700127407517684</v>
       </c>
       <c r="J19">
-        <v>1.390545741873581</v>
+        <v>1.390545741873524</v>
       </c>
       <c r="K19">
-        <v>0.736263450821653</v>
+        <v>0.7362634508215677</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.802237076338201</v>
+        <v>3.802237076337974</v>
       </c>
       <c r="C20">
-        <v>2.608272220788137</v>
+        <v>2.608272220788251</v>
       </c>
       <c r="D20">
-        <v>0.3966234673794133</v>
+        <v>0.3966234673798397</v>
       </c>
       <c r="E20">
         <v>0.2200427223214731</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.35035199054443</v>
+        <v>14.35035199054437</v>
       </c>
       <c r="I20">
-        <v>0.038837047673562</v>
+        <v>0.03883704767354601</v>
       </c>
       <c r="J20">
-        <v>1.462453507803474</v>
+        <v>1.462453507803531</v>
       </c>
       <c r="K20">
-        <v>0.7723090389721534</v>
+        <v>0.772309038972125</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.502617238046184</v>
+        <v>4.502617238046412</v>
       </c>
       <c r="C21">
-        <v>3.040330845646736</v>
+        <v>3.040330845647873</v>
       </c>
       <c r="D21">
-        <v>0.4612642828481626</v>
+        <v>0.4612642828473668</v>
       </c>
       <c r="E21">
-        <v>0.2564949204324449</v>
+        <v>0.2564949204323881</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.48940433914055</v>
+        <v>16.48940433914061</v>
       </c>
       <c r="I21">
-        <v>0.04538531366408627</v>
+        <v>0.0453853136640241</v>
       </c>
       <c r="J21">
-        <v>1.719915359618895</v>
+        <v>1.719915359618867</v>
       </c>
       <c r="K21">
-        <v>0.9003405043185353</v>
+        <v>0.9003405043185637</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.005944577027265</v>
+        <v>5.005944577027094</v>
       </c>
       <c r="C22">
-        <v>3.344553044733402</v>
+        <v>3.344553044733516</v>
       </c>
       <c r="D22">
-        <v>0.5068002084167915</v>
+        <v>0.5068002084168768</v>
       </c>
       <c r="E22">
-        <v>0.2822569290490478</v>
+        <v>0.2822569290489554</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.98298879088077</v>
+        <v>17.98298879088048</v>
       </c>
       <c r="I22">
-        <v>0.05002959207322277</v>
+        <v>0.05002959207318902</v>
       </c>
       <c r="J22">
-        <v>1.903404914620381</v>
+        <v>1.903404914620495</v>
       </c>
       <c r="K22">
         <v>0.990645182507464</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.732358050677874</v>
+        <v>4.732358050677988</v>
       </c>
       <c r="C23">
-        <v>3.179815085671635</v>
+        <v>3.179815085671464</v>
       </c>
       <c r="D23">
-        <v>0.4821411247481251</v>
+        <v>0.4821411247480683</v>
       </c>
       <c r="E23">
-        <v>0.268297338467697</v>
+        <v>0.2682973384676259</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.17549269770109</v>
+        <v>17.17549269770126</v>
       </c>
       <c r="I23">
-        <v>0.04751130419161242</v>
+        <v>0.04751130419152005</v>
       </c>
       <c r="J23">
-        <v>1.803820631557457</v>
+        <v>1.803820631557414</v>
       </c>
       <c r="K23">
-        <v>0.9417295406211679</v>
+        <v>0.9417295406211252</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791408671335319</v>
+        <v>3.791408671335091</v>
       </c>
       <c r="C24">
-        <v>2.601507618672656</v>
+        <v>2.601507618673111</v>
       </c>
       <c r="D24">
-        <v>0.3956118645497781</v>
+        <v>0.395611864549096</v>
       </c>
       <c r="E24">
-        <v>0.2194733465216174</v>
+        <v>0.219473346521589</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.31669372510933</v>
+        <v>14.31669372510919</v>
       </c>
       <c r="I24">
-        <v>0.03873497791672698</v>
+        <v>0.03873497791675362</v>
       </c>
       <c r="J24">
-        <v>1.458452247548095</v>
+        <v>1.458452247548081</v>
       </c>
       <c r="K24">
-        <v>0.7703066774639495</v>
+        <v>0.7703066774638714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.912859209792316</v>
+        <v>2.912859209792146</v>
       </c>
       <c r="C25">
-        <v>2.043229572709095</v>
+        <v>2.043229572708981</v>
       </c>
       <c r="D25">
-        <v>0.3122049476640854</v>
+        <v>0.3122049476635738</v>
       </c>
       <c r="E25">
-        <v>0.17264172344305</v>
+        <v>0.1726417234431494</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.5204957166309</v>
+        <v>11.52049571663105</v>
       </c>
       <c r="I25">
-        <v>0.0303618357122204</v>
+        <v>0.03036183571213336</v>
       </c>
       <c r="J25">
         <v>1.131507251430463</v>
       </c>
       <c r="K25">
-        <v>0.6053107104153952</v>
+        <v>0.605310710415452</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.338359460802735</v>
+        <v>2.310520938393438</v>
       </c>
       <c r="C2">
-        <v>1.66688681145115</v>
+        <v>1.655904950679485</v>
       </c>
       <c r="D2">
-        <v>0.2561122748780917</v>
+        <v>0.2546080325993643</v>
       </c>
       <c r="E2">
-        <v>0.1412723976040766</v>
+        <v>0.1404278314119694</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007840066340423018</v>
       </c>
       <c r="H2">
-        <v>9.613734193021344</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02477774417431888</v>
+        <v>9.623257424321878</v>
       </c>
       <c r="J2">
-        <v>0.9149605767063917</v>
+        <v>0.02463659749723845</v>
       </c>
       <c r="K2">
-        <v>0.4944100486508134</v>
+        <v>0.9058335113326592</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.491562536080103</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.979104793209501</v>
+        <v>1.958033897971688</v>
       </c>
       <c r="C3">
-        <v>1.426162206529227</v>
+        <v>1.418640753604222</v>
       </c>
       <c r="D3">
-        <v>0.2203212125121752</v>
+        <v>0.2190714788140156</v>
       </c>
       <c r="E3">
-        <v>0.1213100373310674</v>
+        <v>0.1205584924921652</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007993449267580525</v>
       </c>
       <c r="H3">
-        <v>8.383682081068486</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02123461143267491</v>
+        <v>8.401325315775068</v>
       </c>
       <c r="J3">
-        <v>0.7782371637079848</v>
+        <v>0.02110012095064207</v>
       </c>
       <c r="K3">
-        <v>0.4236398658802401</v>
+        <v>0.7714843827588709</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4215036480498924</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.769660791342289</v>
+        <v>1.752636355167681</v>
       </c>
       <c r="C4">
-        <v>1.283604247085577</v>
+        <v>1.278146914310298</v>
       </c>
       <c r="D4">
-        <v>0.199169667349878</v>
+        <v>0.1980647431320648</v>
       </c>
       <c r="E4">
-        <v>0.1095328590937008</v>
+        <v>0.1088314016205381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008088409675242148</v>
       </c>
       <c r="H4">
-        <v>7.650898991890415</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01914815752693677</v>
+        <v>7.673188076584552</v>
       </c>
       <c r="J4">
-        <v>0.6979910487241838</v>
+        <v>0.01901641067457049</v>
       </c>
       <c r="K4">
-        <v>0.3818017036492805</v>
+        <v>0.6926583869264533</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3800813350057908</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.68665631070283</v>
+        <v>1.671263292228758</v>
       </c>
       <c r="C5">
-        <v>1.226605363721035</v>
+        <v>1.221978831386707</v>
       </c>
       <c r="D5">
-        <v>0.1907237644912243</v>
+        <v>0.1896755642750065</v>
       </c>
       <c r="E5">
-        <v>0.1048344288182328</v>
+        <v>0.1041519388742955</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008127387644891604</v>
       </c>
       <c r="H5">
-        <v>7.35691477321302</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01831660276007163</v>
+        <v>7.381029563863166</v>
       </c>
       <c r="J5">
-        <v>0.6660675818877735</v>
+        <v>0.01818569140640669</v>
       </c>
       <c r="K5">
-        <v>0.3650904453067412</v>
+        <v>0.6613074989251686</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3635355922983123</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.673003176460725</v>
+        <v>1.657880243521163</v>
       </c>
       <c r="C6">
-        <v>1.217200919911534</v>
+        <v>1.212711841111968</v>
       </c>
       <c r="D6">
-        <v>0.1893309176917626</v>
+        <v>0.188292013363295</v>
       </c>
       <c r="E6">
-        <v>0.1040598282230114</v>
+        <v>0.1033804087871246</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008133879094492522</v>
       </c>
       <c r="H6">
-        <v>7.308351579887784</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01817955522682624</v>
+        <v>7.332765905543681</v>
       </c>
       <c r="J6">
-        <v>0.660809630233139</v>
+        <v>0.01804876692148838</v>
       </c>
       <c r="K6">
-        <v>0.3623341825497732</v>
+        <v>0.6561443383954852</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3608066080635766</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.768532416505025</v>
+        <v>1.751530041720628</v>
       </c>
       <c r="C7">
-        <v>1.282831380582479</v>
+        <v>1.27738528841104</v>
       </c>
       <c r="D7">
-        <v>0.1990551012811324</v>
+        <v>0.1979509506285808</v>
       </c>
       <c r="E7">
-        <v>0.1094691099781251</v>
+        <v>0.1087679137755764</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000808893410544181</v>
       </c>
       <c r="H7">
-        <v>7.646916708007808</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0191368716798852</v>
+        <v>7.669230667140965</v>
       </c>
       <c r="J7">
-        <v>0.6975575553474158</v>
+        <v>0.01900513717546382</v>
       </c>
       <c r="K7">
-        <v>0.3815750430254354</v>
+        <v>0.6922326364424265</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3798569210326264</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211877828874265</v>
+        <v>2.18640200766265</v>
       </c>
       <c r="C8">
-        <v>1.582648714307595</v>
+        <v>1.572875859883652</v>
       </c>
       <c r="D8">
-        <v>0.2435783840025323</v>
+        <v>0.2421646762826839</v>
       </c>
       <c r="E8">
-        <v>0.1342768644357619</v>
+        <v>0.1334660502076019</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000789284511527885</v>
       </c>
       <c r="H8">
-        <v>9.184282865443123</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02353517109337488</v>
+        <v>9.196688496267342</v>
       </c>
       <c r="J8">
-        <v>0.8669493071329555</v>
+        <v>0.02339663591255814</v>
       </c>
       <c r="K8">
-        <v>0.4696288629405956</v>
+        <v>0.8586509726211631</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4670318208076694</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.195134286801704</v>
+        <v>3.151584684842362</v>
       </c>
       <c r="C9">
-        <v>2.224720512922829</v>
+        <v>2.205689377666545</v>
       </c>
       <c r="D9">
-        <v>0.339299387754636</v>
+        <v>0.3371515824584179</v>
       </c>
       <c r="E9">
-        <v>0.1878302822012543</v>
+        <v>0.1867288573663899</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007509888608549829</v>
       </c>
       <c r="H9">
-        <v>12.43357748484408</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03307264322108594</v>
+        <v>12.42277417057363</v>
       </c>
       <c r="J9">
-        <v>1.237071105345507</v>
+        <v>0.03290667435993555</v>
       </c>
       <c r="K9">
-        <v>0.658890956555382</v>
+        <v>1.222441335338232</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6543255961859273</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.033324971615968</v>
+        <v>3.974410242437614</v>
       </c>
       <c r="C10">
-        <v>2.752005141259644</v>
+        <v>2.725114541858318</v>
       </c>
       <c r="D10">
-        <v>0.4181216876759208</v>
+        <v>0.4152835623321494</v>
       </c>
       <c r="E10">
-        <v>0.232150766060542</v>
+        <v>0.2307487305322411</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007221175098909573</v>
       </c>
       <c r="H10">
-        <v>15.06428676802204</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04100915200335642</v>
+        <v>15.03194600927901</v>
       </c>
       <c r="J10">
-        <v>1.54768996110333</v>
+        <v>0.04080723158460842</v>
       </c>
       <c r="K10">
-        <v>0.8148711691231512</v>
+        <v>1.527698182301776</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8085504783013988</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.454818212192947</v>
+        <v>4.388013890438401</v>
       </c>
       <c r="C11">
-        <v>3.011175436243946</v>
+        <v>2.980263614539297</v>
       </c>
       <c r="D11">
-        <v>0.4569009065306489</v>
+        <v>0.4536882927629335</v>
       </c>
       <c r="E11">
-        <v>0.2540299901977292</v>
+        <v>0.2524566418818992</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007085592122272799</v>
       </c>
       <c r="H11">
-        <v>16.34572078850749</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0449416626882293</v>
+        <v>16.30179563920279</v>
       </c>
       <c r="J11">
-        <v>1.702425360752443</v>
+        <v>0.04471715800476339</v>
       </c>
       <c r="K11">
-        <v>0.8916925740930282</v>
+        <v>1.679689638875317</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.884446331879758</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.622015989197223</v>
+        <v>4.552033858940945</v>
       </c>
       <c r="C12">
-        <v>3.112955203305546</v>
+        <v>3.080427321685818</v>
       </c>
       <c r="D12">
-        <v>0.4721337716577523</v>
+        <v>0.4687668627749417</v>
       </c>
       <c r="E12">
-        <v>0.262638004400003</v>
+        <v>0.260992645902526</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007033326981215598</v>
       </c>
       <c r="H12">
-        <v>16.84689744124057</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04649152036449067</v>
+        <v>16.79821814373912</v>
       </c>
       <c r="J12">
-        <v>1.763554330196186</v>
+        <v>0.04625717475047786</v>
       </c>
       <c r="K12">
-        <v>0.9218870046563694</v>
+        <v>1.739715311366211</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9142638356881179</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.585633761975942</v>
+        <v>4.516345778994548</v>
       </c>
       <c r="C13">
-        <v>3.090856360136399</v>
+        <v>3.05868129321766</v>
       </c>
       <c r="D13">
-        <v>0.4688262169738096</v>
+        <v>0.4654931742987571</v>
       </c>
       <c r="E13">
-        <v>0.2607682631321211</v>
+        <v>0.2591387771918221</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007044630385674982</v>
       </c>
       <c r="H13">
-        <v>16.73817849619542</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.04615474738643321</v>
+        <v>16.69054177195665</v>
       </c>
       <c r="J13">
-        <v>1.750264514575164</v>
+        <v>0.04592258698092522</v>
       </c>
       <c r="K13">
-        <v>0.9153298716449996</v>
+        <v>1.726666399455837</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9077892303013471</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.468408979511878</v>
+        <v>4.401347482461006</v>
       </c>
       <c r="C14">
-        <v>3.019470018223103</v>
+        <v>2.988427329221224</v>
       </c>
       <c r="D14">
-        <v>0.4581422524620393</v>
+        <v>0.4549172232953822</v>
       </c>
       <c r="E14">
-        <v>0.2547311787669315</v>
+        <v>0.2531520654716815</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007081312900538968</v>
       </c>
       <c r="H14">
-        <v>16.38660779900334</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04506785359477306</v>
+        <v>16.34229970884877</v>
       </c>
       <c r="J14">
-        <v>1.707399487407102</v>
+        <v>0.04484256809133491</v>
       </c>
       <c r="K14">
-        <v>0.8941527524665815</v>
+        <v>1.684574435710957</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8868760911800706</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.397657874197819</v>
+        <v>4.331933100503647</v>
       </c>
       <c r="C15">
-        <v>2.97624811223443</v>
+        <v>2.945885787170596</v>
       </c>
       <c r="D15">
-        <v>0.4516739097905429</v>
+        <v>0.4485132726571237</v>
       </c>
       <c r="E15">
-        <v>0.2510780227805114</v>
+        <v>0.2495287522021172</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007103650775955701</v>
       </c>
       <c r="H15">
-        <v>16.17346674199962</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.04441051580663569</v>
+        <v>16.13114552453749</v>
       </c>
       <c r="J15">
-        <v>1.681494850022702</v>
+        <v>0.04418925851996747</v>
       </c>
       <c r="K15">
-        <v>0.8813341474995724</v>
+        <v>1.659134188563598</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.8742154293603619</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.006729257657241</v>
+        <v>3.948307436077869</v>
       </c>
       <c r="C16">
-        <v>2.735523580373183</v>
+        <v>2.708884597297015</v>
       </c>
       <c r="D16">
-        <v>0.4156561798671703</v>
+        <v>0.4128410260403825</v>
       </c>
       <c r="E16">
-        <v>0.2307613986032564</v>
+        <v>0.2293697003920556</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007229925879638549</v>
       </c>
       <c r="H16">
-        <v>14.98254014582903</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.04075975854911462</v>
+        <v>14.95091215916983</v>
       </c>
       <c r="J16">
-        <v>1.537894977257039</v>
+        <v>0.04055915927802189</v>
       </c>
       <c r="K16">
-        <v>0.8099890914339767</v>
+        <v>1.518074848410279</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.80372571487095</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.778310164961511</v>
+        <v>3.724102678767451</v>
       </c>
       <c r="C17">
-        <v>2.593321282154363</v>
+        <v>2.568835234630797</v>
       </c>
       <c r="D17">
-        <v>0.3943876742735597</v>
+        <v>0.3917667829639413</v>
       </c>
       <c r="E17">
-        <v>0.2187843613159188</v>
+        <v>0.2174792263069989</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007306111563791178</v>
       </c>
       <c r="H17">
-        <v>14.27595442834843</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0386114749510984</v>
+        <v>14.25036454498124</v>
       </c>
       <c r="J17">
-        <v>1.453611274349441</v>
+        <v>0.0384217277670853</v>
       </c>
       <c r="K17">
-        <v>0.767883568280503</v>
+        <v>1.435259764585339</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7621076372238349</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.650576858730233</v>
+        <v>3.598713453212326</v>
       </c>
       <c r="C18">
-        <v>2.513282793720975</v>
+        <v>2.489995389996409</v>
       </c>
       <c r="D18">
-        <v>0.3824201041762194</v>
+        <v>0.379905557642104</v>
       </c>
       <c r="E18">
-        <v>0.2120514646228457</v>
+        <v>0.2107930378414764</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007349555289223543</v>
       </c>
       <c r="H18">
-        <v>13.87723885758373</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03740508091078709</v>
+        <v>13.85496247635479</v>
       </c>
       <c r="J18">
-        <v>1.406352608229952</v>
+        <v>0.03722102062944188</v>
       </c>
       <c r="K18">
-        <v>0.744198103597796</v>
+        <v>1.388818739021431</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7386912278935114</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.60790921512762</v>
+        <v>3.556827190215074</v>
       </c>
       <c r="C19">
-        <v>2.486462227447646</v>
+        <v>2.463574543840252</v>
       </c>
       <c r="D19">
-        <v>0.3784104381355462</v>
+        <v>0.375931061705856</v>
       </c>
       <c r="E19">
-        <v>0.2097966825799915</v>
+        <v>0.2085535920743098</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000736420793647774</v>
       </c>
       <c r="H19">
-        <v>13.74346629429451</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03700127407517684</v>
+        <v>13.72228703461741</v>
       </c>
       <c r="J19">
-        <v>1.390545741873524</v>
+        <v>0.03681905311274214</v>
       </c>
       <c r="K19">
-        <v>0.7362634508215677</v>
+        <v>1.37328454553365</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.730845922966779</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.802237076337974</v>
+        <v>3.747589591050314</v>
       </c>
       <c r="C20">
-        <v>2.608272220788251</v>
+        <v>2.583561266341235</v>
       </c>
       <c r="D20">
-        <v>0.3966234673798397</v>
+        <v>0.3939824764265722</v>
       </c>
       <c r="E20">
-        <v>0.2200427223214731</v>
+        <v>0.2187287039225438</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007298042360268299</v>
       </c>
       <c r="H20">
-        <v>14.35035199054437</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03883704767354601</v>
+        <v>14.32413649005755</v>
       </c>
       <c r="J20">
-        <v>1.462453507803531</v>
+        <v>0.0386462049661418</v>
       </c>
       <c r="K20">
-        <v>0.772309038972125</v>
+        <v>1.443948582182855</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7664824368175189</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.502617238046412</v>
+        <v>4.434907560709064</v>
       </c>
       <c r="C21">
-        <v>3.040330845647873</v>
+        <v>3.008958384065409</v>
       </c>
       <c r="D21">
-        <v>0.4612642828473668</v>
+        <v>0.4580079057808462</v>
       </c>
       <c r="E21">
-        <v>0.2564949204323881</v>
+        <v>0.2549012278633995</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000707056641702334</v>
       </c>
       <c r="H21">
-        <v>16.48940433914061</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0453853136640241</v>
+        <v>16.44412966458771</v>
       </c>
       <c r="J21">
-        <v>1.719915359618867</v>
+        <v>0.04515804794693778</v>
       </c>
       <c r="K21">
-        <v>0.9003405043185637</v>
+        <v>1.696865194978201</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8929871082056735</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.005944577027094</v>
+        <v>4.928536148706712</v>
       </c>
       <c r="C22">
-        <v>3.344553044733516</v>
+        <v>3.308257640637862</v>
       </c>
       <c r="D22">
-        <v>0.5068002084168768</v>
+        <v>0.5030655278348206</v>
       </c>
       <c r="E22">
-        <v>0.2822569290489554</v>
+        <v>0.2804369156345672</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006916287279430304</v>
       </c>
       <c r="H22">
-        <v>17.98298879088048</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05002959207318902</v>
+        <v>17.92301980781252</v>
       </c>
       <c r="J22">
-        <v>1.903404914620495</v>
+        <v>0.04977065488758114</v>
       </c>
       <c r="K22">
-        <v>0.990645182507464</v>
+        <v>1.876991993153993</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9821326393531393</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.732358050677988</v>
+        <v>4.660261074830942</v>
       </c>
       <c r="C23">
-        <v>3.179815085671464</v>
+        <v>3.146212966822532</v>
       </c>
       <c r="D23">
-        <v>0.4821411247480683</v>
+        <v>0.4786704875520797</v>
       </c>
       <c r="E23">
-        <v>0.2682973384676259</v>
+        <v>0.2666031365415904</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006999275744732175</v>
       </c>
       <c r="H23">
-        <v>17.17549269770126</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04751130419152005</v>
+        <v>17.12362327132189</v>
       </c>
       <c r="J23">
-        <v>1.803820631557414</v>
+        <v>0.0472701798546904</v>
       </c>
       <c r="K23">
-        <v>0.9417295406211252</v>
+        <v>1.779247988476712</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.933854285430499</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791408671335091</v>
+        <v>3.73696035093559</v>
       </c>
       <c r="C24">
-        <v>2.601507618673111</v>
+        <v>2.576898464468059</v>
       </c>
       <c r="D24">
-        <v>0.395611864549096</v>
+        <v>0.3929799770179443</v>
       </c>
       <c r="E24">
-        <v>0.219473346521589</v>
+        <v>0.2181633536817529</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000730169153335957</v>
       </c>
       <c r="H24">
-        <v>14.31669372510919</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03873497791675362</v>
+        <v>14.29076155037561</v>
       </c>
       <c r="J24">
-        <v>1.458452247548081</v>
+        <v>0.03854463218848814</v>
       </c>
       <c r="K24">
-        <v>0.7703066774638714</v>
+        <v>1.440016762974054</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7645030179912382</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.912859209792146</v>
+        <v>2.874454459328774</v>
       </c>
       <c r="C25">
-        <v>2.043229572708981</v>
+        <v>2.026834716062524</v>
       </c>
       <c r="D25">
-        <v>0.3122049476635738</v>
+        <v>0.3102754101348637</v>
       </c>
       <c r="E25">
-        <v>0.1726417234431494</v>
+        <v>0.1716303757982089</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007614059624055531</v>
       </c>
       <c r="H25">
-        <v>11.52049571663105</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03036183571213336</v>
+        <v>11.51655674462771</v>
       </c>
       <c r="J25">
-        <v>1.131507251430463</v>
+        <v>0.03020538283947261</v>
       </c>
       <c r="K25">
-        <v>0.605310710415452</v>
+        <v>1.118677580066489</v>
       </c>
       <c r="L25">
+        <v>0.6013172875996204</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.310520938393438</v>
+        <v>4.996194390214441</v>
       </c>
       <c r="C2">
-        <v>1.655904950679485</v>
+        <v>0.9716660788560603</v>
       </c>
       <c r="D2">
-        <v>0.2546080325993643</v>
+        <v>0.1925089998878349</v>
       </c>
       <c r="E2">
-        <v>0.1404278314119694</v>
+        <v>0.02793586150006888</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007840066340423018</v>
+        <v>0.0008250090505558691</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.623257424321878</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02463659749723845</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9058335113326592</v>
+        <v>1.310703498438301</v>
       </c>
       <c r="L2">
-        <v>0.491562536080103</v>
+        <v>0.1478960884415486</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7438425681242222</v>
+      </c>
+      <c r="N2">
+        <v>4.478281590778494</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.958033897971688</v>
+        <v>4.37575118384018</v>
       </c>
       <c r="C3">
-        <v>1.418640753604222</v>
+        <v>0.8324900415957472</v>
       </c>
       <c r="D3">
-        <v>0.2190714788140156</v>
+        <v>0.1651405190468722</v>
       </c>
       <c r="E3">
-        <v>0.1205584924921652</v>
+        <v>0.02470462120735561</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007993449267580525</v>
+        <v>0.0008385838860838938</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.401325315775068</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02110012095064207</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7714843827588709</v>
+        <v>1.140225579672148</v>
       </c>
       <c r="L3">
-        <v>0.4215036480498924</v>
+        <v>0.1339120100881814</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6547324236087064</v>
+      </c>
+      <c r="N3">
+        <v>4.22527597915655</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.752636355167681</v>
+        <v>4.007300181909613</v>
       </c>
       <c r="C4">
-        <v>1.278146914310298</v>
+        <v>0.7495586342709259</v>
       </c>
       <c r="D4">
-        <v>0.1980647431320648</v>
+        <v>0.1488092789347633</v>
       </c>
       <c r="E4">
-        <v>0.1088314016205381</v>
+        <v>0.02277404295051966</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008088409675242148</v>
+        <v>0.0008470692986177172</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.673188076584552</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01901641067457049</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6926583869264533</v>
+        <v>1.038888916210496</v>
       </c>
       <c r="L4">
-        <v>0.3800813350057908</v>
+        <v>0.1256531286499794</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6018521773013816</v>
+      </c>
+      <c r="N4">
+        <v>4.07459700808954</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.671263292228758</v>
+        <v>3.859870349911034</v>
       </c>
       <c r="C5">
-        <v>1.221978831386707</v>
+        <v>0.7162987486034638</v>
       </c>
       <c r="D5">
-        <v>0.1896755642750065</v>
+        <v>0.1422547822626399</v>
       </c>
       <c r="E5">
-        <v>0.1041519388742955</v>
+        <v>0.02199806104723656</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008127387644891604</v>
+        <v>0.0008505697663693605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.381029563863166</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01818569140640669</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6613074989251686</v>
+        <v>0.9983144138330147</v>
       </c>
       <c r="L5">
-        <v>0.3635355922983123</v>
+        <v>0.1223605038796691</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5807031509314413</v>
+      </c>
+      <c r="N5">
+        <v>4.014215737964179</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.657880243521163</v>
+        <v>3.835542304201113</v>
       </c>
       <c r="C6">
-        <v>1.212711841111968</v>
+        <v>0.7108056319169123</v>
       </c>
       <c r="D6">
-        <v>0.188292013363295</v>
+        <v>0.1411719946908079</v>
       </c>
       <c r="E6">
-        <v>0.1033804087871246</v>
+        <v>0.02186978685024243</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008133879094492522</v>
+        <v>0.0008511537181289972</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.332765905543681</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01804876692148838</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6561443383954852</v>
+        <v>0.9916174063196053</v>
       </c>
       <c r="L6">
-        <v>0.3608066080635766</v>
+        <v>0.1218179171243321</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5772138890625058</v>
+      </c>
+      <c r="N6">
+        <v>4.004247059992338</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.751530041720628</v>
+        <v>4.005301418482247</v>
       </c>
       <c r="C7">
-        <v>1.27738528841104</v>
+        <v>0.7491080345249657</v>
       </c>
       <c r="D7">
-        <v>0.1979509506285808</v>
+        <v>0.1487204979769814</v>
       </c>
       <c r="E7">
-        <v>0.1087679137755764</v>
+        <v>0.02276353757920013</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000808893410544181</v>
+        <v>0.000847116328800418</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.669230667140965</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01900513717546382</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6922326364424265</v>
+        <v>1.038338940897873</v>
       </c>
       <c r="L7">
-        <v>0.3798569210326264</v>
+        <v>0.1256084394666814</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6015654095100302</v>
+      </c>
+      <c r="N7">
+        <v>4.073778736951539</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.18640200766265</v>
+        <v>4.77939628746276</v>
       </c>
       <c r="C8">
-        <v>1.572875859883652</v>
+        <v>0.9230907504187371</v>
       </c>
       <c r="D8">
-        <v>0.2421646762826839</v>
+        <v>0.1829623734403896</v>
       </c>
       <c r="E8">
-        <v>0.1334660502076019</v>
+        <v>0.02680890717714846</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000789284511527885</v>
+        <v>0.0008296614921429476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.196688496267342</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02339663591255814</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8586509726211631</v>
+        <v>1.251154122482092</v>
       </c>
       <c r="L8">
-        <v>0.4670318208076694</v>
+        <v>0.1430004116072325</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.71269765922586</v>
+      </c>
+      <c r="N8">
+        <v>4.389979188412298</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.151584684842362</v>
+        <v>6.419148271088829</v>
       </c>
       <c r="C9">
-        <v>2.205689377666545</v>
+        <v>1.289544694987342</v>
       </c>
       <c r="D9">
-        <v>0.3371515824584179</v>
+        <v>0.2548331811051554</v>
       </c>
       <c r="E9">
-        <v>0.1867288573663899</v>
+        <v>0.03530993900414003</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007509888608549829</v>
+        <v>0.0007963754910321247</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.42277417057363</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03290667435993555</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.222441335338232</v>
+        <v>1.701210066627695</v>
       </c>
       <c r="L9">
-        <v>0.6543255961859273</v>
+        <v>0.1801968616613934</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9483941294576823</v>
+      </c>
+      <c r="N9">
+        <v>5.055056661676417</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.974410242437614</v>
+        <v>7.735955644834291</v>
       </c>
       <c r="C10">
-        <v>2.725114541858318</v>
+        <v>1.583055312646593</v>
       </c>
       <c r="D10">
-        <v>0.4152835623321494</v>
+        <v>0.312142707400028</v>
       </c>
       <c r="E10">
-        <v>0.2307487305322411</v>
+        <v>0.0421494472017141</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007221175098909573</v>
+        <v>0.0007720763256903288</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.03194600927901</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04080723158460842</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.527698182301776</v>
+        <v>2.062316775133425</v>
       </c>
       <c r="L10">
-        <v>0.8085504783013988</v>
+        <v>0.2102318705357789</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.137786517702693</v>
+      </c>
+      <c r="N10">
+        <v>5.584426260097359</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.388013890438401</v>
+        <v>8.370207469879801</v>
       </c>
       <c r="C11">
-        <v>2.980263614539297</v>
+        <v>1.724417045475946</v>
       </c>
       <c r="D11">
-        <v>0.4536882927629335</v>
+        <v>0.3396599245700855</v>
       </c>
       <c r="E11">
-        <v>0.2524566418818992</v>
+        <v>0.04546303799702223</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007085592122272799</v>
+        <v>0.0007609363386175515</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.30179563920279</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04471715800476339</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.679689638875317</v>
+        <v>2.236224558357662</v>
       </c>
       <c r="L11">
-        <v>0.884446331879758</v>
+        <v>0.2247170968388019</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.229015224452354</v>
+      </c>
+      <c r="N11">
+        <v>5.837877174160496</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.552033858940945</v>
+        <v>8.616608438853518</v>
       </c>
       <c r="C12">
-        <v>3.080427321685818</v>
+        <v>1.779350545452473</v>
       </c>
       <c r="D12">
-        <v>0.4687668627749417</v>
+        <v>0.3503379522135219</v>
       </c>
       <c r="E12">
-        <v>0.260992645902526</v>
+        <v>0.04675491812709431</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007033326981215598</v>
+        <v>0.0007566928014576819</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.79821814373912</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04625717475047786</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.739715311366211</v>
+        <v>2.303787879826842</v>
       </c>
       <c r="L12">
-        <v>0.9142638356881179</v>
+        <v>0.2303452443252212</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.264455524123179</v>
+      </c>
+      <c r="N12">
+        <v>5.936070511067442</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516345778994548</v>
+        <v>8.563243470478596</v>
       </c>
       <c r="C13">
-        <v>3.05868129321766</v>
+        <v>1.767452154780017</v>
       </c>
       <c r="D13">
-        <v>0.4654931742987571</v>
+        <v>0.3480258624193198</v>
       </c>
       <c r="E13">
-        <v>0.2591387771918221</v>
+        <v>0.04647488929085597</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007044630385674982</v>
+        <v>0.0007576080710225434</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.69054177195665</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04592258698092522</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.726666399455837</v>
+        <v>2.289154997828376</v>
       </c>
       <c r="L13">
-        <v>0.9077892303013471</v>
+        <v>0.2291263139026256</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.256780036140029</v>
+      </c>
+      <c r="N13">
+        <v>5.914816885624077</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.401347482461006</v>
+        <v>8.390346715765531</v>
       </c>
       <c r="C14">
-        <v>2.988427329221224</v>
+        <v>1.728906533922554</v>
       </c>
       <c r="D14">
-        <v>0.4549172232953822</v>
+        <v>0.3405329183234187</v>
       </c>
       <c r="E14">
-        <v>0.2531520654716815</v>
+        <v>0.04556852519699817</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007081312900538968</v>
+        <v>0.0007605878054986323</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.34229970884877</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04484256809133491</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.684574435710957</v>
+        <v>2.241746686554563</v>
       </c>
       <c r="L14">
-        <v>0.8868760911800706</v>
+        <v>0.2251771029289529</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.231911926639299</v>
+      </c>
+      <c r="N14">
+        <v>5.845908559092209</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.331933100503647</v>
+        <v>8.285291805384304</v>
       </c>
       <c r="C15">
-        <v>2.945885787170596</v>
+        <v>1.705488187584308</v>
       </c>
       <c r="D15">
-        <v>0.4485132726571237</v>
+        <v>0.3359785258862757</v>
       </c>
       <c r="E15">
-        <v>0.2495287522021172</v>
+        <v>0.04501845383586556</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007103650775955701</v>
+        <v>0.0007624092894193031</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.13114552453749</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04418925851996747</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.659134188563598</v>
+        <v>2.21294100953439</v>
       </c>
       <c r="L15">
-        <v>0.8742154293603619</v>
+        <v>0.2227775329377835</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.216801428364676</v>
+      </c>
+      <c r="N15">
+        <v>5.804002307804922</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.948307436077869</v>
+        <v>7.695307896217741</v>
       </c>
       <c r="C16">
-        <v>2.708884597297015</v>
+        <v>1.573996915182761</v>
       </c>
       <c r="D16">
-        <v>0.4128410260403825</v>
+        <v>0.3103775152192298</v>
       </c>
       <c r="E16">
-        <v>0.2293697003920556</v>
+        <v>0.04193760728086993</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007229925879638549</v>
+        <v>0.0007728015951240205</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.95091215916983</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04055915927802189</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.518074848410279</v>
+        <v>2.051171373471931</v>
       </c>
       <c r="L16">
-        <v>0.80372571487095</v>
+        <v>0.2093037618513875</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.131939835893419</v>
+      </c>
+      <c r="N16">
+        <v>5.568149180044429</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.724102678767451</v>
+        <v>7.343141328909837</v>
       </c>
       <c r="C17">
-        <v>2.568835234630797</v>
+        <v>1.495516824865263</v>
       </c>
       <c r="D17">
-        <v>0.3917667829639413</v>
+        <v>0.2950747934552993</v>
       </c>
       <c r="E17">
-        <v>0.2174792263069989</v>
+        <v>0.04010452575405665</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007306111563791178</v>
+        <v>0.0007791466905629327</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.25036454498124</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0384217277670853</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.435259764585339</v>
+        <v>1.954607201873401</v>
       </c>
       <c r="L17">
-        <v>0.7621076372238349</v>
+        <v>0.2012645793079031</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.081285441536807</v>
+      </c>
+      <c r="N17">
+        <v>5.426956158745412</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.598713453212326</v>
+        <v>7.143818063296465</v>
       </c>
       <c r="C18">
-        <v>2.489995389996409</v>
+        <v>1.451095663189619</v>
       </c>
       <c r="D18">
-        <v>0.379905557642104</v>
+        <v>0.286405711241315</v>
       </c>
       <c r="E18">
-        <v>0.2107930378414764</v>
+        <v>0.03906864639430552</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007349555289223543</v>
+        <v>0.0007827890107853891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.85496247635479</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03722102062944188</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.388818739021431</v>
+        <v>1.899950329465398</v>
       </c>
       <c r="L18">
-        <v>0.7386912278935114</v>
+        <v>0.1967162912669664</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.052616194673931</v>
+      </c>
+      <c r="N18">
+        <v>5.346906898896009</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.556827190215074</v>
+        <v>7.076854767655675</v>
       </c>
       <c r="C19">
-        <v>2.463574543840252</v>
+        <v>1.436171423434416</v>
       </c>
       <c r="D19">
-        <v>0.375931061705856</v>
+        <v>0.2834919460025418</v>
       </c>
       <c r="E19">
-        <v>0.2085535920743098</v>
+        <v>0.03872087255846957</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000736420793647774</v>
+        <v>0.0007840213418558312</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.72228703461741</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03681905311274214</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.37328454553365</v>
+        <v>1.881587639362024</v>
       </c>
       <c r="L19">
-        <v>0.730845922966779</v>
+        <v>0.1951886408637762</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.042984843987057</v>
+      </c>
+      <c r="N19">
+        <v>5.319992216560451</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.747589591050314</v>
+        <v>7.380287814418011</v>
       </c>
       <c r="C20">
-        <v>2.583561266341235</v>
+        <v>1.503795004757535</v>
       </c>
       <c r="D20">
-        <v>0.3939824764265722</v>
+        <v>0.2966897407450944</v>
       </c>
       <c r="E20">
-        <v>0.2187287039225438</v>
+        <v>0.04029769790806981</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007298042360268299</v>
+        <v>0.0007784720735656956</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.32413649005755</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0386462049661418</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.443948582182855</v>
+        <v>1.964792994643986</v>
       </c>
       <c r="L20">
-        <v>0.7664824368175189</v>
+        <v>0.2021123736926569</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.08662840031419</v>
+      </c>
+      <c r="N20">
+        <v>5.441863590370275</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.434907560709064</v>
+        <v>8.44095122767726</v>
       </c>
       <c r="C21">
-        <v>3.008958384065409</v>
+        <v>1.740187727284706</v>
       </c>
       <c r="D21">
-        <v>0.4580079057808462</v>
+        <v>0.3427263255246515</v>
       </c>
       <c r="E21">
-        <v>0.2549012278633995</v>
+        <v>0.04583366562770586</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000707056641702334</v>
+        <v>0.0007597133808607024</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.44412966458771</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04515804794693778</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.696865194978201</v>
+        <v>2.255622357290989</v>
       </c>
       <c r="L21">
-        <v>0.8929871082056735</v>
+        <v>0.2263329795077311</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.239190533460715</v>
+      </c>
+      <c r="N21">
+        <v>5.866084806540584</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.928536148706712</v>
+        <v>9.171177606852325</v>
       </c>
       <c r="C22">
-        <v>3.308257640637862</v>
+        <v>1.903039753264409</v>
       </c>
       <c r="D22">
-        <v>0.5030655278348206</v>
+        <v>0.3743489746934472</v>
       </c>
       <c r="E22">
-        <v>0.2804369156345672</v>
+        <v>0.04967327417173273</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006916287279430304</v>
+        <v>0.0007472992330757681</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.92301980781252</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04977065488758114</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.876991993153993</v>
+        <v>2.455860946050777</v>
       </c>
       <c r="L22">
-        <v>0.9821326393531393</v>
+        <v>0.2430112528107884</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.344215207294198</v>
+      </c>
+      <c r="N22">
+        <v>6.156515658406761</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.660261074830942</v>
+        <v>8.777598396528788</v>
       </c>
       <c r="C23">
-        <v>3.146212966822532</v>
+        <v>1.815249099769517</v>
       </c>
       <c r="D23">
-        <v>0.4786704875520797</v>
+        <v>0.357311279434299</v>
       </c>
       <c r="E23">
-        <v>0.2666031365415904</v>
+        <v>0.04760052268594883</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006999275744732175</v>
+        <v>0.0007539440025829899</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.12362327132189</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0472701798546904</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.779247988476712</v>
+        <v>2.34793265362336</v>
       </c>
       <c r="L23">
-        <v>0.933854285430499</v>
+        <v>0.234022418021226</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.287610359358524</v>
+      </c>
+      <c r="N23">
+        <v>6.000144674102955</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.73696035093559</v>
+        <v>7.363484185499431</v>
       </c>
       <c r="C24">
-        <v>2.576898464468059</v>
+        <v>1.500050285124757</v>
       </c>
       <c r="D24">
-        <v>0.3929799770179443</v>
+        <v>0.2959592259429513</v>
       </c>
       <c r="E24">
-        <v>0.2181633536817529</v>
+        <v>0.04021030933889946</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000730169153335957</v>
+        <v>0.0007787770842751856</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.29076155037561</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03854463218848814</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.440016762974054</v>
+        <v>1.960185344959754</v>
       </c>
       <c r="L24">
-        <v>0.7645030179912382</v>
+        <v>0.2017288585640244</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.084211450683952</v>
+      </c>
+      <c r="N24">
+        <v>5.435120466954913</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.874454459328774</v>
+        <v>5.959015442722261</v>
       </c>
       <c r="C25">
-        <v>2.026834716062524</v>
+        <v>1.186885552145384</v>
       </c>
       <c r="D25">
-        <v>0.3102754101348637</v>
+        <v>0.2347341657255839</v>
       </c>
       <c r="E25">
-        <v>0.1716303757982089</v>
+        <v>0.0329267597271361</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007614059624055531</v>
+        <v>0.0008053181283113707</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.51655674462771</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03020538283947261</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.118677580066489</v>
+        <v>1.574983928696824</v>
       </c>
       <c r="L25">
-        <v>0.6013172875996204</v>
+        <v>0.1697269559176959</v>
       </c>
       <c r="M25">
+        <v>0.882230557613461</v>
+      </c>
+      <c r="N25">
+        <v>4.869081911597732</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.996194390214441</v>
+        <v>2.542434530741389</v>
       </c>
       <c r="C2">
-        <v>0.9716660788560603</v>
+        <v>0.3857602711125594</v>
       </c>
       <c r="D2">
-        <v>0.1925089998878349</v>
+        <v>0.203041956416314</v>
       </c>
       <c r="E2">
-        <v>0.02793586150006888</v>
+        <v>0.04046518820370615</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008250090505558691</v>
+        <v>0.4069988516687033</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2892371628335155</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2453249509296889</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.310703498438301</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1478960884415486</v>
+        <v>0.3156585831777221</v>
       </c>
       <c r="M2">
-        <v>0.7438425681242222</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.478281590778494</v>
+        <v>0.7020349292775379</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.418947769074947</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.37575118384018</v>
+        <v>2.210952423615197</v>
       </c>
       <c r="C3">
-        <v>0.8324900415957472</v>
+        <v>0.3492982204601134</v>
       </c>
       <c r="D3">
-        <v>0.1651405190468722</v>
+        <v>0.1760925944056595</v>
       </c>
       <c r="E3">
-        <v>0.02470462120735561</v>
+        <v>0.03988775707456504</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008385838860838938</v>
+        <v>0.3708318564749646</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2781643758133612</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2423798994599409</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.140225579672148</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1339120100881814</v>
+        <v>0.277183529048088</v>
       </c>
       <c r="M3">
-        <v>0.6547324236087064</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.22527597915655</v>
+        <v>0.7113083907443567</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.318705508968719</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.007300181909613</v>
+        <v>2.007633031845899</v>
       </c>
       <c r="C4">
-        <v>0.7495586342709259</v>
+        <v>0.3268578843694883</v>
       </c>
       <c r="D4">
-        <v>0.1488092789347633</v>
+        <v>0.1596944272766194</v>
       </c>
       <c r="E4">
-        <v>0.02277404295051966</v>
+        <v>0.03961408190280125</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008470692986177172</v>
+        <v>0.3495436638568634</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2719388589558918</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2412725307035828</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.038888916210496</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1256531286499794</v>
+        <v>0.253803009117334</v>
       </c>
       <c r="M4">
-        <v>0.6018521773013816</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.07459700808954</v>
+        <v>0.7178937872812767</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.260292645852019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.859870349911034</v>
+        <v>1.924808244173107</v>
       </c>
       <c r="C5">
-        <v>0.7162987486034638</v>
+        <v>0.3176982233405568</v>
       </c>
       <c r="D5">
-        <v>0.1422547822626399</v>
+        <v>0.1530449576899002</v>
       </c>
       <c r="E5">
-        <v>0.02199806104723656</v>
+        <v>0.03952211697124142</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008505697663693605</v>
+        <v>0.3410836386651823</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2695388687259594</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2409889250148325</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9983144138330147</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1223605038796691</v>
+        <v>0.2443305438582684</v>
       </c>
       <c r="M5">
-        <v>0.5807031509314413</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4.014215737964179</v>
+        <v>0.7207944915785447</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.237228868205648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.835542304201113</v>
+        <v>1.911056366596512</v>
       </c>
       <c r="C6">
-        <v>0.7108056319169123</v>
+        <v>0.3161763088830298</v>
       </c>
       <c r="D6">
-        <v>0.1411719946908079</v>
+        <v>0.1519426786178713</v>
       </c>
       <c r="E6">
-        <v>0.02186978685024243</v>
+        <v>0.03950800557790402</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008511537181289972</v>
+        <v>0.3396913989104746</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2691484207403647</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2409517147608327</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9916174063196053</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1218179171243321</v>
+        <v>0.242760820654496</v>
       </c>
       <c r="M6">
-        <v>0.5772138890625058</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.004247059992338</v>
+        <v>0.7212890642584995</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.233442456362724</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.005301418482247</v>
+        <v>2.006515938674227</v>
       </c>
       <c r="C7">
-        <v>0.7491080345249657</v>
+        <v>0.3267344172189581</v>
       </c>
       <c r="D7">
-        <v>0.1487204979769814</v>
+        <v>0.1596046227330277</v>
       </c>
       <c r="E7">
-        <v>0.02276353757920013</v>
+        <v>0.03961276343506448</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000847116328800418</v>
+        <v>0.3494287185485945</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.271905946545985</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2412680381315866</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.038338940897873</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1256084394666814</v>
+        <v>0.2536750438635806</v>
       </c>
       <c r="M7">
-        <v>0.6015654095100302</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>4.073778736951539</v>
+        <v>0.7179320372166842</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.259978666359444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.77939628746276</v>
+        <v>2.42808064215086</v>
       </c>
       <c r="C8">
-        <v>0.9230907504187371</v>
+        <v>0.3731978875941024</v>
       </c>
       <c r="D8">
-        <v>0.1829623734403896</v>
+        <v>0.1937161309459725</v>
       </c>
       <c r="E8">
-        <v>0.02680890717714846</v>
+        <v>0.04024882825028797</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008296614921429476</v>
+        <v>0.3943280351683427</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2852958584622627</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2441587281536286</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.251154122482092</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1430004116072325</v>
+        <v>0.3023382291969057</v>
       </c>
       <c r="M8">
-        <v>0.71269765922586</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4.389979188412298</v>
+        <v>0.705043033207005</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.383703219902799</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.419148271088829</v>
+        <v>3.257636067339831</v>
       </c>
       <c r="C9">
-        <v>1.289544694987342</v>
+        <v>0.4639907238710634</v>
       </c>
       <c r="D9">
-        <v>0.2548331811051554</v>
+        <v>0.2620072917463858</v>
       </c>
       <c r="E9">
-        <v>0.03530993900414003</v>
+        <v>0.04217452836632418</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007963754910321247</v>
+        <v>0.4904222178695505</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3164449484836211</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2557967807820383</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.701210066627695</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1801968616613934</v>
+        <v>0.3999829226856235</v>
       </c>
       <c r="M9">
-        <v>0.9483941294576823</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>5.055056661676417</v>
+        <v>0.6871778514674816</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.653540146131746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.735955644834291</v>
+        <v>3.870681898383339</v>
       </c>
       <c r="C10">
-        <v>1.583055312646593</v>
+        <v>0.5306491215124254</v>
       </c>
       <c r="D10">
-        <v>0.312142707400028</v>
+        <v>0.313357455250042</v>
       </c>
       <c r="E10">
-        <v>0.0421494472017141</v>
+        <v>0.04405661794814186</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007720763256903288</v>
+        <v>0.5670507723615401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3428198736478123</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2685860018208324</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.062316775133425</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2102318705357789</v>
+        <v>0.4735011910707811</v>
       </c>
       <c r="M10">
-        <v>1.137786517702693</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5.584426260097359</v>
+        <v>0.6790658997917376</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.87182332274304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.370207469879801</v>
+        <v>4.150788839156178</v>
       </c>
       <c r="C11">
-        <v>1.724417045475946</v>
+        <v>0.5610003311250011</v>
       </c>
       <c r="D11">
-        <v>0.3396599245700855</v>
+        <v>0.3370504759986659</v>
       </c>
       <c r="E11">
-        <v>0.04546303799702223</v>
+        <v>0.04502690881097671</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007609363386175515</v>
+        <v>0.6034870731689068</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.355697109997223</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2754665862073864</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.236224558357662</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2247170968388019</v>
+        <v>0.5074347915276292</v>
       </c>
       <c r="M11">
-        <v>1.229015224452354</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5.837877174160496</v>
+        <v>0.676582063381332</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.976295528935736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.616608438853518</v>
+        <v>4.257073379425378</v>
       </c>
       <c r="C12">
-        <v>1.779350545452473</v>
+        <v>0.5725007969092815</v>
       </c>
       <c r="D12">
-        <v>0.3503379522135219</v>
+        <v>0.3460771673071434</v>
       </c>
       <c r="E12">
-        <v>0.04675491812709431</v>
+        <v>0.04541185970119521</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007566928014576819</v>
+        <v>0.6175352541463184</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3607106168515628</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2782376069484442</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.303787879826842</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2303452443252212</v>
+        <v>0.5203639984138562</v>
       </c>
       <c r="M12">
-        <v>1.264455524123179</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.936070511067442</v>
+        <v>0.6758255385101535</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.016673674072706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.563243470478596</v>
+        <v>4.234172952391475</v>
       </c>
       <c r="C13">
-        <v>1.767452154780017</v>
+        <v>0.5700235966730816</v>
       </c>
       <c r="D13">
-        <v>0.3480258624193198</v>
+        <v>0.344130565300361</v>
       </c>
       <c r="E13">
-        <v>0.04647488929085597</v>
+        <v>0.04532815584812511</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007576080710225434</v>
+        <v>0.6144981886181853</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3596245879171676</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2776332465051468</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.289154997828376</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2291263139026256</v>
+        <v>0.5175757880449083</v>
       </c>
       <c r="M13">
-        <v>1.256780036140029</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.914816885624077</v>
+        <v>0.6759801079471401</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.007939976817255</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.390346715765531</v>
+        <v>4.159528416446335</v>
       </c>
       <c r="C14">
-        <v>1.728906533922554</v>
+        <v>0.5619463198665926</v>
       </c>
       <c r="D14">
-        <v>0.3405329183234187</v>
+        <v>0.3377919718895157</v>
       </c>
       <c r="E14">
-        <v>0.04556852519699817</v>
+        <v>0.04505822114915503</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007605878054986323</v>
+        <v>0.6046376624621956</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3561067606319881</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2756911673078903</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.241746686554563</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2251771029289529</v>
+        <v>0.5084968430632983</v>
       </c>
       <c r="M14">
-        <v>1.231911926639299</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>5.845908559092209</v>
+        <v>0.6765160718610019</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.979600658279224</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.285291805384304</v>
+        <v>4.113835526670357</v>
       </c>
       <c r="C15">
-        <v>1.705488187584308</v>
+        <v>0.5569997788817602</v>
       </c>
       <c r="D15">
-        <v>0.3359785258862757</v>
+        <v>0.3339167251184278</v>
       </c>
       <c r="E15">
-        <v>0.04501845383586556</v>
+        <v>0.04489519453970559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007624092894193031</v>
+        <v>0.5986311656563856</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3539701866992147</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2745235308552409</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.21294100953439</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2227775329377835</v>
+        <v>0.5029463267018031</v>
       </c>
       <c r="M15">
-        <v>1.216801428364676</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5.804002307804922</v>
+        <v>0.6768686600649545</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.96235062529459</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.695307896217741</v>
+        <v>3.852404113916975</v>
       </c>
       <c r="C16">
-        <v>1.573996915182761</v>
+        <v>0.5286664199194036</v>
       </c>
       <c r="D16">
-        <v>0.3103775152192298</v>
+        <v>0.3118163344408913</v>
       </c>
       <c r="E16">
-        <v>0.04193760728086993</v>
+        <v>0.0439955970783501</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007728015951240205</v>
+        <v>0.564703306644688</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3419969089006827</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2681587879195959</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.051171373471931</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2093037618513875</v>
+        <v>0.4712941490022047</v>
       </c>
       <c r="M16">
-        <v>1.131939835893419</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.568149180044429</v>
+        <v>0.6792533874312241</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.865106037498066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.343141328909837</v>
+        <v>3.692364925715822</v>
       </c>
       <c r="C17">
-        <v>1.495516824865263</v>
+        <v>0.511294102698173</v>
       </c>
       <c r="D17">
-        <v>0.2950747934552993</v>
+        <v>0.2983485134533339</v>
       </c>
       <c r="E17">
-        <v>0.04010452575405665</v>
+        <v>0.04347372206846778</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007791466905629327</v>
+        <v>0.5443100577409012</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3348842784327672</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2645351603884691</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.954607201873401</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2012645793079031</v>
+        <v>0.4520081130306153</v>
       </c>
       <c r="M17">
-        <v>1.081285441536807</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.426956158745412</v>
+        <v>0.6810326211202309</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.806825013516715</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.143818063296465</v>
+        <v>3.600427921008304</v>
       </c>
       <c r="C18">
-        <v>1.451095663189619</v>
+        <v>0.5013044360725019</v>
       </c>
       <c r="D18">
-        <v>0.286405711241315</v>
+        <v>0.2906331493681193</v>
       </c>
       <c r="E18">
-        <v>0.03906864639430552</v>
+        <v>0.04318422422214141</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007827890107853891</v>
+        <v>0.5327273762930673</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3308753436869694</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.262550164054403</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.899950329465398</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1967162912669664</v>
+        <v>0.440960828037575</v>
       </c>
       <c r="M18">
-        <v>1.052616194673931</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>5.346906898896009</v>
+        <v>0.6821688607929559</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.77378566971808</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.076854767655675</v>
+        <v>3.569318000356304</v>
       </c>
       <c r="C19">
-        <v>1.436171423434416</v>
+        <v>0.4979224342253303</v>
       </c>
       <c r="D19">
-        <v>0.2834919460025418</v>
+        <v>0.2880259824407716</v>
       </c>
       <c r="E19">
-        <v>0.03872087255846957</v>
+        <v>0.04308800515952882</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007840213418558312</v>
+        <v>0.5288302277580641</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3295317660759025</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2618947468657176</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.881587639362024</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1951886408637762</v>
+        <v>0.4372279676797319</v>
       </c>
       <c r="M19">
-        <v>1.042984843987057</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>5.319992216560451</v>
+        <v>0.6825726467136448</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.762679827241726</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.380287814418011</v>
+        <v>3.70938938280932</v>
       </c>
       <c r="C20">
-        <v>1.503795004757535</v>
+        <v>0.513143142397098</v>
       </c>
       <c r="D20">
-        <v>0.2966897407450944</v>
+        <v>0.2997789336778283</v>
       </c>
       <c r="E20">
-        <v>0.04029769790806981</v>
+        <v>0.04352816431897644</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007784720735656956</v>
+        <v>0.5464655761491031</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3356328614685111</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2649105439012374</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.964792994643986</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2021123736926569</v>
+        <v>0.4540563698333528</v>
       </c>
       <c r="M20">
-        <v>1.08662840031419</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5.441863590370275</v>
+        <v>0.6808314624580376</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.812978694866871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.44095122767726</v>
+        <v>4.181447202485629</v>
       </c>
       <c r="C21">
-        <v>1.740187727284706</v>
+        <v>0.5643185924596708</v>
       </c>
       <c r="D21">
-        <v>0.3427263255246515</v>
+        <v>0.3396522313516215</v>
       </c>
       <c r="E21">
-        <v>0.04583366562770586</v>
+        <v>0.04513702273797371</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007597133808607024</v>
+        <v>0.607526941102293</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3571362192787291</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2762570062532888</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.255622357290989</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2263329795077311</v>
+        <v>0.5111613236145871</v>
       </c>
       <c r="M21">
-        <v>1.239190533460715</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5.866084806540584</v>
+        <v>0.6763535633632785</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.987901829970326</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.171177606852325</v>
+        <v>4.491231844094273</v>
       </c>
       <c r="C22">
-        <v>1.903039753264409</v>
+        <v>0.5978078656970069</v>
       </c>
       <c r="D22">
-        <v>0.3743489746934472</v>
+        <v>0.3660337773023343</v>
       </c>
       <c r="E22">
-        <v>0.04967327417173273</v>
+        <v>0.04629120812418996</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007472992330757681</v>
+        <v>0.6489066754034667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3719950373772605</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2846437171266629</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.455860946050777</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2430112528107884</v>
+        <v>0.5489494487589184</v>
       </c>
       <c r="M22">
-        <v>1.344215207294198</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6.156515658406761</v>
+        <v>0.6745052082204097</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.107022664718585</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.777598396528788</v>
+        <v>4.325764842546221</v>
       </c>
       <c r="C23">
-        <v>1.815249099769517</v>
+        <v>0.579928961138279</v>
       </c>
       <c r="D23">
-        <v>0.357311279434299</v>
+        <v>0.3519216479985801</v>
       </c>
       <c r="E23">
-        <v>0.04760052268594883</v>
+        <v>0.04566541431911375</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007539440025829899</v>
+        <v>0.6266785133799146</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3639871784364601</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2800742923832402</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.34793265362336</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.234022418021226</v>
+        <v>0.5287354119291479</v>
       </c>
       <c r="M23">
-        <v>1.287610359358524</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.000144674102955</v>
+        <v>0.6753893711143348</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.04298115438209</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.363484185499431</v>
+        <v>3.701692405350741</v>
       </c>
       <c r="C24">
-        <v>1.500050285124757</v>
+        <v>0.5123071982897329</v>
       </c>
       <c r="D24">
-        <v>0.2959592259429513</v>
+        <v>0.2991321556453812</v>
       </c>
       <c r="E24">
-        <v>0.04021030933889946</v>
+        <v>0.04350351824653842</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007787770842751856</v>
+        <v>0.5454906267807331</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.335294178042119</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2647405278575867</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.960185344959754</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2017288585640244</v>
+        <v>0.4531302274030509</v>
       </c>
       <c r="M24">
-        <v>1.084211450683952</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5.435120466954913</v>
+        <v>0.6809220540695193</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.810195165766004</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.959015442722261</v>
+        <v>3.032731929873307</v>
       </c>
       <c r="C25">
-        <v>1.186885552145384</v>
+        <v>0.439448665964818</v>
       </c>
       <c r="D25">
-        <v>0.2347341657255839</v>
+        <v>0.2433507533932726</v>
       </c>
       <c r="E25">
-        <v>0.0329267597271361</v>
+        <v>0.04157558519206006</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008053181283113707</v>
+        <v>0.4634531461388036</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3074441782756594</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2519496345241379</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.574983928696824</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1697269559176959</v>
+        <v>0.3732876877717075</v>
       </c>
       <c r="M25">
-        <v>0.882230557613461</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.869081911597732</v>
+        <v>0.691168260932649</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.577286434802261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.542434530741389</v>
+        <v>0.9938049312760313</v>
       </c>
       <c r="C2">
-        <v>0.3857602711125594</v>
+        <v>0.212234597619414</v>
       </c>
       <c r="D2">
-        <v>0.203041956416314</v>
+        <v>0.07909651800753181</v>
       </c>
       <c r="E2">
-        <v>0.04046518820370615</v>
+        <v>0.09333381263081897</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4069988516687033</v>
+        <v>0.4601385920929175</v>
       </c>
       <c r="H2">
-        <v>0.2892371628335155</v>
+        <v>0.5938273185414999</v>
       </c>
       <c r="I2">
-        <v>0.2453249509296889</v>
+        <v>0.5382333918353446</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3156585831777221</v>
+        <v>0.2163124842965516</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7020349292775379</v>
+        <v>1.048868541489476</v>
       </c>
       <c r="O2">
-        <v>1.418947769074947</v>
+        <v>2.064056326840614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.210952423615197</v>
+        <v>0.894141305142341</v>
       </c>
       <c r="C3">
-        <v>0.3492982204601134</v>
+        <v>0.2000957193538682</v>
       </c>
       <c r="D3">
-        <v>0.1760925944056595</v>
+        <v>0.07167157949231751</v>
       </c>
       <c r="E3">
-        <v>0.03988775707456504</v>
+        <v>0.0939493106743825</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3708318564749646</v>
+        <v>0.4555348137965325</v>
       </c>
       <c r="H3">
-        <v>0.2781643758133612</v>
+        <v>0.5957503478763329</v>
       </c>
       <c r="I3">
-        <v>0.2423798994599409</v>
+        <v>0.542907236514079</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.277183529048088</v>
+        <v>0.2066827801411506</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7113083907443567</v>
+        <v>1.054573738535794</v>
       </c>
       <c r="O3">
-        <v>1.318705508968719</v>
+        <v>2.05802185600578</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.007633031845899</v>
+        <v>0.832981842795391</v>
       </c>
       <c r="C4">
-        <v>0.3268578843694883</v>
+        <v>0.1925862729588204</v>
       </c>
       <c r="D4">
-        <v>0.1596944272766194</v>
+        <v>0.06714643977471724</v>
       </c>
       <c r="E4">
-        <v>0.03961408190280125</v>
+        <v>0.09437578624672405</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3495436638568634</v>
+        <v>0.4530833153082909</v>
       </c>
       <c r="H4">
-        <v>0.2719388589558918</v>
+        <v>0.5972481569939418</v>
       </c>
       <c r="I4">
-        <v>0.2412725307035828</v>
+        <v>0.5461293598405277</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.253803009117334</v>
+        <v>0.2008767839549819</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7178937872812767</v>
+        <v>1.058495131001621</v>
       </c>
       <c r="O4">
-        <v>1.260292645852019</v>
+        <v>2.055765051049235</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.924808244173107</v>
+        <v>0.808069165303408</v>
       </c>
       <c r="C5">
-        <v>0.3176982233405568</v>
+        <v>0.1895121866545821</v>
       </c>
       <c r="D5">
-        <v>0.1530449576899002</v>
+        <v>0.06531091400866273</v>
       </c>
       <c r="E5">
-        <v>0.03952211697124142</v>
+        <v>0.09456179339879434</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3410836386651823</v>
+        <v>0.4521784940125855</v>
       </c>
       <c r="H5">
-        <v>0.2695388687259594</v>
+        <v>0.5979382656465191</v>
       </c>
       <c r="I5">
-        <v>0.2409889250148325</v>
+        <v>0.5475309138285525</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2443305438582684</v>
+        <v>0.198537715716796</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7207944915785447</v>
+        <v>1.060198482022784</v>
       </c>
       <c r="O5">
-        <v>1.237228868205648</v>
+        <v>2.055209243041674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.911056366596512</v>
+        <v>0.8039331048468057</v>
       </c>
       <c r="C6">
-        <v>0.3161763088830298</v>
+        <v>0.1890009013980745</v>
       </c>
       <c r="D6">
-        <v>0.1519426786178713</v>
+        <v>0.06500664022220803</v>
       </c>
       <c r="E6">
-        <v>0.03950800557790402</v>
+        <v>0.09459341763476559</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3396913989104746</v>
+        <v>0.4520339325552527</v>
       </c>
       <c r="H6">
-        <v>0.2691484207403647</v>
+        <v>0.598057674070489</v>
       </c>
       <c r="I6">
-        <v>0.2409517147608327</v>
+        <v>0.5477689840421363</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.242760820654496</v>
+        <v>0.1981509441087326</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7212890642584995</v>
+        <v>1.060487689558535</v>
       </c>
       <c r="O6">
-        <v>1.233442456362724</v>
+        <v>2.05513891746736</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.006515938674227</v>
+        <v>0.8326458178249823</v>
       </c>
       <c r="C7">
-        <v>0.3267344172189581</v>
+        <v>0.1925448708929736</v>
       </c>
       <c r="D7">
-        <v>0.1596046227330277</v>
+        <v>0.06712165078725718</v>
       </c>
       <c r="E7">
-        <v>0.03961276343506448</v>
+        <v>0.09437824534012229</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3494287185485945</v>
+        <v>0.45307073145365</v>
       </c>
       <c r="H7">
-        <v>0.271905946545985</v>
+        <v>0.597257141164647</v>
       </c>
       <c r="I7">
-        <v>0.2412680381315866</v>
+        <v>0.5461479034266503</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2536750438635806</v>
+        <v>0.2008451293265381</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7179320372166842</v>
+        <v>1.058517676226742</v>
       </c>
       <c r="O7">
-        <v>1.259978666359444</v>
+        <v>2.055756082446464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.42808064215086</v>
+        <v>0.9594347287775236</v>
       </c>
       <c r="C8">
-        <v>0.3731978875941024</v>
+        <v>0.2080608702481186</v>
       </c>
       <c r="D8">
-        <v>0.1937161309459725</v>
+        <v>0.07652938455244396</v>
       </c>
       <c r="E8">
-        <v>0.04024882825028797</v>
+        <v>0.09353596108869233</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3943280351683427</v>
+        <v>0.4584732215399612</v>
       </c>
       <c r="H8">
-        <v>0.2852958584622627</v>
+        <v>0.5944245788426912</v>
       </c>
       <c r="I8">
-        <v>0.2441587281536286</v>
+        <v>0.5397717447146633</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3023382291969057</v>
+        <v>0.2129700751298031</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.705043033207005</v>
+        <v>1.050748945290501</v>
       </c>
       <c r="O8">
-        <v>1.383703219902799</v>
+        <v>2.061674810565876</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.257636067339831</v>
+        <v>1.208280204660753</v>
       </c>
       <c r="C9">
-        <v>0.4639907238710634</v>
+        <v>0.2380354711260111</v>
       </c>
       <c r="D9">
-        <v>0.2620072917463858</v>
+        <v>0.09524686587317888</v>
       </c>
       <c r="E9">
-        <v>0.04217452836632418</v>
+        <v>0.09226935554342042</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4904222178695505</v>
+        <v>0.4720539524081317</v>
       </c>
       <c r="H9">
-        <v>0.3164449484836211</v>
+        <v>0.5913857070663227</v>
       </c>
       <c r="I9">
-        <v>0.2557967807820383</v>
+        <v>0.530068323986729</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3999829226856235</v>
+        <v>0.2375907078301083</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6871778514674816</v>
+        <v>1.038828195093068</v>
       </c>
       <c r="O9">
-        <v>1.653540146131746</v>
+        <v>2.084793412247052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.870681898383339</v>
+        <v>1.391173789890615</v>
       </c>
       <c r="C10">
-        <v>0.5306491215124254</v>
+        <v>0.2597748365876384</v>
       </c>
       <c r="D10">
-        <v>0.313357455250042</v>
+        <v>0.1091649898296936</v>
       </c>
       <c r="E10">
-        <v>0.04405661794814186</v>
+        <v>0.09157338792730307</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5670507723615401</v>
+        <v>0.4838668208338675</v>
       </c>
       <c r="H10">
-        <v>0.3428198736478123</v>
+        <v>0.5906875889252348</v>
       </c>
       <c r="I10">
-        <v>0.2685860018208324</v>
+        <v>0.5246526250357277</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4735011910707811</v>
+        <v>0.2561921195655827</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6790658997917376</v>
+        <v>1.032082932818483</v>
       </c>
       <c r="O10">
-        <v>1.87182332274304</v>
+        <v>2.108829628485665</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.150788839156178</v>
+        <v>1.474379093451091</v>
       </c>
       <c r="C11">
-        <v>0.5610003311250011</v>
+        <v>0.2696017679894851</v>
       </c>
       <c r="D11">
-        <v>0.3370504759986659</v>
+        <v>0.1155334299847794</v>
       </c>
       <c r="E11">
-        <v>0.04502690881097671</v>
+        <v>0.09130768662364552</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6034870731689068</v>
+        <v>0.4896424857620332</v>
       </c>
       <c r="H11">
-        <v>0.355697109997223</v>
+        <v>0.5907034524477268</v>
       </c>
       <c r="I11">
-        <v>0.2754665862073864</v>
+        <v>0.5225623152718271</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5074347915276292</v>
+        <v>0.264765466392376</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.676582063381332</v>
+        <v>1.029450030488618</v>
       </c>
       <c r="O11">
-        <v>1.976295528935736</v>
+        <v>2.121302795404887</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.257073379425378</v>
+        <v>1.505886220085927</v>
       </c>
       <c r="C12">
-        <v>0.5725007969092815</v>
+        <v>0.2733138310179299</v>
       </c>
       <c r="D12">
-        <v>0.3460771673071434</v>
+        <v>0.1179503292382122</v>
       </c>
       <c r="E12">
-        <v>0.04541185970119521</v>
+        <v>0.09121438833770412</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6175352541463184</v>
+        <v>0.4918875947263217</v>
       </c>
       <c r="H12">
-        <v>0.3607106168515628</v>
+        <v>0.5907574150970873</v>
       </c>
       <c r="I12">
-        <v>0.2782376069484442</v>
+        <v>0.5218245620291597</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5203639984138562</v>
+        <v>0.2680279312569809</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6758255385101535</v>
+        <v>1.028515538682313</v>
       </c>
       <c r="O12">
-        <v>2.016673674072706</v>
+        <v>2.126247845381954</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.234172952391475</v>
+        <v>1.49910066587546</v>
       </c>
       <c r="C13">
-        <v>0.5700235966730816</v>
+        <v>0.272514783523917</v>
       </c>
       <c r="D13">
-        <v>0.344130565300361</v>
+        <v>0.1174295708384108</v>
       </c>
       <c r="E13">
-        <v>0.04532815584812511</v>
+        <v>0.09123415639859189</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6144981886181853</v>
+        <v>0.4914014881680657</v>
       </c>
       <c r="H13">
-        <v>0.3596245879171676</v>
+        <v>0.590743660330034</v>
       </c>
       <c r="I13">
-        <v>0.2776332465051468</v>
+        <v>0.5219810556561058</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5175757880449083</v>
+        <v>0.2673245945052827</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6759801079471401</v>
+        <v>1.028714018675601</v>
       </c>
       <c r="O13">
-        <v>2.007939976817255</v>
+        <v>2.125172971972319</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.159528416446335</v>
+        <v>1.476971232335984</v>
       </c>
       <c r="C14">
-        <v>0.5619463198665926</v>
+        <v>0.2699073468685924</v>
       </c>
       <c r="D14">
-        <v>0.3377919718895157</v>
+        <v>0.1157321634183859</v>
       </c>
       <c r="E14">
-        <v>0.04505822114915503</v>
+        <v>0.0912998642850571</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6046376624621956</v>
+        <v>0.4898260289234457</v>
       </c>
       <c r="H14">
-        <v>0.3561067606319881</v>
+        <v>0.5907069308477162</v>
       </c>
       <c r="I14">
-        <v>0.2756911673078903</v>
+        <v>0.5225005409227705</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5084968430632983</v>
+        <v>0.2650335527923318</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6765160718610019</v>
+        <v>1.029371896627495</v>
       </c>
       <c r="O14">
-        <v>1.979600658279224</v>
+        <v>2.121705181344737</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.113835526670357</v>
+        <v>1.463416142883773</v>
       </c>
       <c r="C15">
-        <v>0.5569997788817602</v>
+        <v>0.2683090146313987</v>
       </c>
       <c r="D15">
-        <v>0.3339167251184278</v>
+        <v>0.1146931433546143</v>
       </c>
       <c r="E15">
-        <v>0.04489519453970559</v>
+        <v>0.09134106509564965</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5986311656563856</v>
+        <v>0.4888685723478545</v>
       </c>
       <c r="H15">
-        <v>0.3539701866992147</v>
+        <v>0.5906906784070856</v>
       </c>
       <c r="I15">
-        <v>0.2745235308552409</v>
+        <v>0.5228257507394645</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5029463267018031</v>
+        <v>0.2636322943072997</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6768686600649545</v>
+        <v>1.029783006365776</v>
       </c>
       <c r="O15">
-        <v>1.96235062529459</v>
+        <v>2.119609948259125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.852404113916975</v>
+        <v>1.385736096961352</v>
       </c>
       <c r="C16">
-        <v>0.5286664199194036</v>
+        <v>0.2591313498184888</v>
       </c>
       <c r="D16">
-        <v>0.3118163344408913</v>
+        <v>0.1087495409935428</v>
       </c>
       <c r="E16">
-        <v>0.0439955970783501</v>
+        <v>0.09159177615564751</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.564703306644688</v>
+        <v>0.4834974719523046</v>
       </c>
       <c r="H16">
-        <v>0.3419969089006827</v>
+        <v>0.5906932624972114</v>
       </c>
       <c r="I16">
-        <v>0.2681587879195959</v>
+        <v>0.5247967539982454</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4712941490022047</v>
+        <v>0.2556340653140268</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6792533874312241</v>
+        <v>1.032263754880077</v>
       </c>
       <c r="O16">
-        <v>1.865106037498066</v>
+        <v>2.108045482585482</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.692364925715822</v>
+        <v>1.338082189382931</v>
       </c>
       <c r="C17">
-        <v>0.511294102698173</v>
+        <v>0.2534850160134852</v>
       </c>
       <c r="D17">
-        <v>0.2983485134533339</v>
+        <v>0.1051128046401004</v>
       </c>
       <c r="E17">
-        <v>0.04347372206846778</v>
+        <v>0.09175861400752083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5443100577409012</v>
+        <v>0.4803055578262416</v>
       </c>
       <c r="H17">
-        <v>0.3348842784327672</v>
+        <v>0.5907802550330246</v>
       </c>
       <c r="I17">
-        <v>0.2645351603884691</v>
+        <v>0.5261016013070545</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4520081130306153</v>
+        <v>0.250755886823228</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6810326211202309</v>
+        <v>1.033897095851607</v>
       </c>
       <c r="O17">
-        <v>1.806825013516715</v>
+        <v>2.101345532180403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.600427921008304</v>
+        <v>1.310673602694294</v>
       </c>
       <c r="C18">
-        <v>0.5013044360725019</v>
+        <v>0.2502315317249497</v>
       </c>
       <c r="D18">
-        <v>0.2906331493681193</v>
+        <v>0.1030245350455345</v>
       </c>
       <c r="E18">
-        <v>0.04318422422214141</v>
+        <v>0.0918593655977098</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5327273762930673</v>
+        <v>0.4785074735495698</v>
       </c>
       <c r="H18">
-        <v>0.3308753436869694</v>
+        <v>0.5908616754572336</v>
       </c>
       <c r="I18">
-        <v>0.262550164054403</v>
+        <v>0.5268872464198893</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.440960828037575</v>
+        <v>0.2479605860896044</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6821688607929559</v>
+        <v>1.034877552242577</v>
       </c>
       <c r="O18">
-        <v>1.77378566971808</v>
+        <v>2.097636727702849</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.569318000356304</v>
+        <v>1.30139369774173</v>
       </c>
       <c r="C19">
-        <v>0.4979224342253303</v>
+        <v>0.249128957298808</v>
       </c>
       <c r="D19">
-        <v>0.2880259824407716</v>
+        <v>0.1023180817899743</v>
       </c>
       <c r="E19">
-        <v>0.04308800515952882</v>
+        <v>0.09189430125258902</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5288302277580641</v>
+        <v>0.4779051628861737</v>
       </c>
       <c r="H19">
-        <v>0.3295317660759025</v>
+        <v>0.5908946331375944</v>
       </c>
       <c r="I19">
-        <v>0.2618947468657176</v>
+        <v>0.527159282588272</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4372279676797319</v>
+        <v>0.2470159516110186</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6825726467136448</v>
+        <v>1.035216563181883</v>
       </c>
       <c r="O19">
-        <v>1.762679827241726</v>
+        <v>2.096405851730111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.70938938280932</v>
+        <v>1.343154971754416</v>
       </c>
       <c r="C20">
-        <v>0.513143142397098</v>
+        <v>0.2540866861285451</v>
       </c>
       <c r="D20">
-        <v>0.2997789336778283</v>
+        <v>0.1054995808486012</v>
       </c>
       <c r="E20">
-        <v>0.04352816431897644</v>
+        <v>0.09174035801090419</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5464655761491031</v>
+        <v>0.4806414268732055</v>
       </c>
       <c r="H20">
-        <v>0.3356328614685111</v>
+        <v>0.590767746286204</v>
       </c>
       <c r="I20">
-        <v>0.2649105439012374</v>
+        <v>0.5259590612465104</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4540563698333528</v>
+        <v>0.2512740914541922</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6808314624580376</v>
+        <v>1.033718981119875</v>
       </c>
       <c r="O20">
-        <v>1.812978694866871</v>
+        <v>2.102043760869492</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.181447202485629</v>
+        <v>1.483471222521644</v>
       </c>
       <c r="C21">
-        <v>0.5643185924596708</v>
+        <v>0.2706734650839451</v>
       </c>
       <c r="D21">
-        <v>0.3396522313516215</v>
+        <v>0.1162305891467668</v>
       </c>
       <c r="E21">
-        <v>0.04513702273797371</v>
+        <v>0.09128036572015219</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.607526941102293</v>
+        <v>0.4902872041335939</v>
       </c>
       <c r="H21">
-        <v>0.3571362192787291</v>
+        <v>0.5907164176327342</v>
       </c>
       <c r="I21">
-        <v>0.2762570062532888</v>
+        <v>0.5223464943992582</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5111613236145871</v>
+        <v>0.265706055931318</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6763535633632785</v>
+        <v>1.029176965626831</v>
       </c>
       <c r="O21">
-        <v>1.987901829970326</v>
+        <v>2.122717734349294</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.491231844094273</v>
+        <v>1.575169834979931</v>
       </c>
       <c r="C22">
-        <v>0.5978078656970069</v>
+        <v>0.2814602647082438</v>
       </c>
       <c r="D22">
-        <v>0.3660337773023343</v>
+        <v>0.1232748624457543</v>
       </c>
       <c r="E22">
-        <v>0.04629120812418996</v>
+        <v>0.09102238246162386</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6489066754034667</v>
+        <v>0.4969293755933393</v>
       </c>
       <c r="H22">
-        <v>0.3719950373772605</v>
+        <v>0.5909623958633148</v>
       </c>
       <c r="I22">
-        <v>0.2846437171266629</v>
+        <v>0.5202991254840228</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5489494487589184</v>
+        <v>0.2752309501020278</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6745052082204097</v>
+        <v>1.026572931974457</v>
       </c>
       <c r="O22">
-        <v>2.107022664718585</v>
+        <v>2.137521994166804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.325764842546221</v>
+        <v>1.526229715572413</v>
       </c>
       <c r="C23">
-        <v>0.579928961138279</v>
+        <v>0.2757081213226229</v>
       </c>
       <c r="D23">
-        <v>0.3519216479985801</v>
+        <v>0.119512375011368</v>
       </c>
       <c r="E23">
-        <v>0.04566541431911375</v>
+        <v>0.09115617133637954</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6266785133799146</v>
+        <v>0.4933533243964519</v>
       </c>
       <c r="H23">
-        <v>0.3639871784364601</v>
+        <v>0.5908055338217508</v>
       </c>
       <c r="I23">
-        <v>0.2800742923832402</v>
+        <v>0.5213631064186472</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5287354119291479</v>
+        <v>0.270138881046222</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6753893711143348</v>
+        <v>1.027929439871414</v>
       </c>
       <c r="O23">
-        <v>2.04298115438209</v>
+        <v>2.129502265796248</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.701692405350741</v>
+        <v>1.340861603214705</v>
       </c>
       <c r="C24">
-        <v>0.5123071982897329</v>
+        <v>0.2538146938926786</v>
       </c>
       <c r="D24">
-        <v>0.2991321556453812</v>
+        <v>0.1053247114170972</v>
       </c>
       <c r="E24">
-        <v>0.04350351824653842</v>
+        <v>0.09174859648867084</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5454906267807331</v>
+        <v>0.4804894652715745</v>
       </c>
       <c r="H24">
-        <v>0.335294178042119</v>
+        <v>0.5907733036582243</v>
       </c>
       <c r="I24">
-        <v>0.2647405278575867</v>
+        <v>0.5260233931262306</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4531302274030509</v>
+        <v>0.2510397823866555</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6809220540695193</v>
+        <v>1.033799377738717</v>
       </c>
       <c r="O24">
-        <v>1.810195165766004</v>
+        <v>2.101727646005173</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032731929873307</v>
+        <v>1.140944645379761</v>
       </c>
       <c r="C25">
-        <v>0.439448665964818</v>
+        <v>0.2299757161398475</v>
       </c>
       <c r="D25">
-        <v>0.2433507533932726</v>
+        <v>0.09015424437164654</v>
       </c>
       <c r="E25">
-        <v>0.04157558519206006</v>
+        <v>0.09257079424106607</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4634531461388036</v>
+        <v>0.4680587818929496</v>
       </c>
       <c r="H25">
-        <v>0.3074441782756594</v>
+        <v>0.5919383830791816</v>
       </c>
       <c r="I25">
-        <v>0.2519496345241379</v>
+        <v>0.5323929203965143</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3732876877717075</v>
+        <v>0.2308400281045664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.691168260932649</v>
+        <v>1.041699082759109</v>
       </c>
       <c r="O25">
-        <v>1.577286434802261</v>
+        <v>2.077303362587998</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9938049312760313</v>
+        <v>2.542434530741559</v>
       </c>
       <c r="C2">
-        <v>0.212234597619414</v>
+        <v>0.3857602711130426</v>
       </c>
       <c r="D2">
-        <v>0.07909651800753181</v>
+        <v>0.2030419564162287</v>
       </c>
       <c r="E2">
-        <v>0.09333381263081897</v>
+        <v>0.04046518820369194</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4601385920929175</v>
+        <v>0.4069988516686891</v>
       </c>
       <c r="H2">
-        <v>0.5938273185414999</v>
+        <v>0.2892371628334018</v>
       </c>
       <c r="I2">
-        <v>0.5382333918353446</v>
+        <v>0.2453249509296853</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2163124842965516</v>
+        <v>0.3156585831777363</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.048868541489476</v>
+        <v>0.702034929277545</v>
       </c>
       <c r="O2">
-        <v>2.064056326840614</v>
+        <v>1.418947769074947</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.894141305142341</v>
+        <v>2.210952423615311</v>
       </c>
       <c r="C3">
-        <v>0.2000957193538682</v>
+        <v>0.3492982204601276</v>
       </c>
       <c r="D3">
-        <v>0.07167157949231751</v>
+        <v>0.1760925944058869</v>
       </c>
       <c r="E3">
-        <v>0.0939493106743825</v>
+        <v>0.03988775707456327</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4555348137965325</v>
+        <v>0.3708318564749078</v>
       </c>
       <c r="H3">
-        <v>0.5957503478763329</v>
+        <v>0.2781643758132475</v>
       </c>
       <c r="I3">
-        <v>0.542907236514079</v>
+        <v>0.2423798994599444</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2066827801411506</v>
+        <v>0.2771835290480738</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.054573738535794</v>
+        <v>0.7113083907443567</v>
       </c>
       <c r="O3">
-        <v>2.05802185600578</v>
+        <v>1.318705508968662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.832981842795391</v>
+        <v>2.007633031845899</v>
       </c>
       <c r="C4">
-        <v>0.1925862729588204</v>
+        <v>0.3268578843694883</v>
       </c>
       <c r="D4">
-        <v>0.06714643977471724</v>
+        <v>0.1596944272766052</v>
       </c>
       <c r="E4">
-        <v>0.09437578624672405</v>
+        <v>0.03961408190280125</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4530833153082909</v>
+        <v>0.3495436638569203</v>
       </c>
       <c r="H4">
-        <v>0.5972481569939418</v>
+        <v>0.2719388589558918</v>
       </c>
       <c r="I4">
-        <v>0.5461293598405277</v>
+        <v>0.2412725307035934</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2008767839549819</v>
+        <v>0.2538030091174193</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.058495131001621</v>
+        <v>0.7178937872812767</v>
       </c>
       <c r="O4">
-        <v>2.055765051049235</v>
+        <v>1.260292645852019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.808069165303408</v>
+        <v>1.924808244172937</v>
       </c>
       <c r="C5">
-        <v>0.1895121866545821</v>
+        <v>0.3176982233406704</v>
       </c>
       <c r="D5">
-        <v>0.06531091400866273</v>
+        <v>0.1530449576901418</v>
       </c>
       <c r="E5">
-        <v>0.09456179339879434</v>
+        <v>0.03952211697123609</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4521784940125855</v>
+        <v>0.3410836386651681</v>
       </c>
       <c r="H5">
-        <v>0.5979382656465191</v>
+        <v>0.2695388687259594</v>
       </c>
       <c r="I5">
-        <v>0.5475309138285525</v>
+        <v>0.2409889250148289</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.198537715716796</v>
+        <v>0.244330543858311</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.060198482022784</v>
+        <v>0.7207944915786015</v>
       </c>
       <c r="O5">
-        <v>2.055209243041674</v>
+        <v>1.237228868205705</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8039331048468057</v>
+        <v>1.911056366596654</v>
       </c>
       <c r="C6">
-        <v>0.1890009013980745</v>
+        <v>0.3161763088831577</v>
       </c>
       <c r="D6">
-        <v>0.06500664022220803</v>
+        <v>0.1519426786179849</v>
       </c>
       <c r="E6">
-        <v>0.09459341763476559</v>
+        <v>0.03950800557788803</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4520339325552527</v>
+        <v>0.3396913989104604</v>
       </c>
       <c r="H6">
-        <v>0.598057674070489</v>
+        <v>0.2691484207404926</v>
       </c>
       <c r="I6">
-        <v>0.5477689840421363</v>
+        <v>0.2409517147608504</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1981509441087326</v>
+        <v>0.2427608206545386</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.060487689558535</v>
+        <v>0.7212890642584924</v>
       </c>
       <c r="O6">
-        <v>2.05513891746736</v>
+        <v>1.233442456362695</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8326458178249823</v>
+        <v>2.006515938674227</v>
       </c>
       <c r="C7">
-        <v>0.1925448708929736</v>
+        <v>0.3267344172189013</v>
       </c>
       <c r="D7">
-        <v>0.06712165078725718</v>
+        <v>0.1596046227328856</v>
       </c>
       <c r="E7">
-        <v>0.09437824534012229</v>
+        <v>0.03961276343504849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.45307073145365</v>
+        <v>0.3494287185485376</v>
       </c>
       <c r="H7">
-        <v>0.597257141164647</v>
+        <v>0.2719059465459992</v>
       </c>
       <c r="I7">
-        <v>0.5461479034266503</v>
+        <v>0.2412680381316044</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2008451293265381</v>
+        <v>0.2536750438635522</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.058517676226742</v>
+        <v>0.7179320372166984</v>
       </c>
       <c r="O7">
-        <v>2.055756082446464</v>
+        <v>1.259978666359473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9594347287775236</v>
+        <v>2.42808064215069</v>
       </c>
       <c r="C8">
-        <v>0.2080608702481186</v>
+        <v>0.3731978875939035</v>
       </c>
       <c r="D8">
-        <v>0.07652938455244396</v>
+        <v>0.1937161309460862</v>
       </c>
       <c r="E8">
-        <v>0.09353596108869233</v>
+        <v>0.04024882825028619</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4584732215399612</v>
+        <v>0.3943280351682859</v>
       </c>
       <c r="H8">
-        <v>0.5944245788426912</v>
+        <v>0.2852958584622911</v>
       </c>
       <c r="I8">
-        <v>0.5397717447146633</v>
+        <v>0.2441587281536322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2129700751298031</v>
+        <v>0.3023382291969909</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.050748945290501</v>
+        <v>0.705043033207005</v>
       </c>
       <c r="O8">
-        <v>2.061674810565876</v>
+        <v>1.383703219902799</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.208280204660753</v>
+        <v>3.257636067339718</v>
       </c>
       <c r="C9">
-        <v>0.2380354711260111</v>
+        <v>0.4639907238711203</v>
       </c>
       <c r="D9">
-        <v>0.09524686587317888</v>
+        <v>0.2620072917463432</v>
       </c>
       <c r="E9">
-        <v>0.09226935554342042</v>
+        <v>0.04217452836633484</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4720539524081317</v>
+        <v>0.490422217869579</v>
       </c>
       <c r="H9">
-        <v>0.5913857070663227</v>
+        <v>0.3164449484837348</v>
       </c>
       <c r="I9">
-        <v>0.530068323986729</v>
+        <v>0.2557967807820241</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2375907078301083</v>
+        <v>0.3999829226854956</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.038828195093068</v>
+        <v>0.6871778514674745</v>
       </c>
       <c r="O9">
-        <v>2.084793412247052</v>
+        <v>1.653540146131746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.391173789890615</v>
+        <v>3.870681898383225</v>
       </c>
       <c r="C10">
-        <v>0.2597748365876384</v>
+        <v>0.5306491215125391</v>
       </c>
       <c r="D10">
-        <v>0.1091649898296936</v>
+        <v>0.3133574552499141</v>
       </c>
       <c r="E10">
-        <v>0.09157338792730307</v>
+        <v>0.04405661794817384</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4838668208338675</v>
+        <v>0.5670507723614691</v>
       </c>
       <c r="H10">
-        <v>0.5906875889252348</v>
+        <v>0.3428198736478123</v>
       </c>
       <c r="I10">
-        <v>0.5246526250357277</v>
+        <v>0.2685860018208146</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2561921195655827</v>
+        <v>0.4735011910707954</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.032082932818483</v>
+        <v>0.6790658997917447</v>
       </c>
       <c r="O10">
-        <v>2.108829628485665</v>
+        <v>1.87182332274304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.474379093451091</v>
+        <v>4.150788839156121</v>
       </c>
       <c r="C11">
-        <v>0.2696017679894851</v>
+        <v>0.561000331125058</v>
       </c>
       <c r="D11">
-        <v>0.1155334299847794</v>
+        <v>0.3370504759986659</v>
       </c>
       <c r="E11">
-        <v>0.09130768662364552</v>
+        <v>0.04502690881099269</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4896424857620332</v>
+        <v>0.6034870731689068</v>
       </c>
       <c r="H11">
-        <v>0.5907034524477268</v>
+        <v>0.3556971099971236</v>
       </c>
       <c r="I11">
-        <v>0.5225623152718271</v>
+        <v>0.2754665862073793</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.264765466392376</v>
+        <v>0.5074347915275439</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.029450030488618</v>
+        <v>0.6765820633813178</v>
       </c>
       <c r="O11">
-        <v>2.121302795404887</v>
+        <v>1.976295528935708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.505886220085927</v>
+        <v>4.257073379425321</v>
       </c>
       <c r="C12">
-        <v>0.2733138310179299</v>
+        <v>0.5725007969091678</v>
       </c>
       <c r="D12">
-        <v>0.1179503292382122</v>
+        <v>0.3460771673071008</v>
       </c>
       <c r="E12">
-        <v>0.09121438833770412</v>
+        <v>0.04541185970119344</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4918875947263217</v>
+        <v>0.6175352541463468</v>
       </c>
       <c r="H12">
-        <v>0.5907574150970873</v>
+        <v>0.3607106168516623</v>
       </c>
       <c r="I12">
-        <v>0.5218245620291597</v>
+        <v>0.2782376069484442</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2680279312569809</v>
+        <v>0.5203639984138988</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.028515538682313</v>
+        <v>0.6758255385101535</v>
       </c>
       <c r="O12">
-        <v>2.126247845381954</v>
+        <v>2.016673674072734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.49910066587546</v>
+        <v>4.234172952391475</v>
       </c>
       <c r="C13">
-        <v>0.272514783523917</v>
+        <v>0.5700235966729394</v>
       </c>
       <c r="D13">
-        <v>0.1174295708384108</v>
+        <v>0.3441305653003468</v>
       </c>
       <c r="E13">
-        <v>0.09123415639859189</v>
+        <v>0.04532815584812511</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4914014881680657</v>
+        <v>0.6144981886181995</v>
       </c>
       <c r="H13">
-        <v>0.590743660330034</v>
+        <v>0.359624587917267</v>
       </c>
       <c r="I13">
-        <v>0.5219810556561058</v>
+        <v>0.277633246505161</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2673245945052827</v>
+        <v>0.5175757880448373</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.028714018675601</v>
+        <v>0.6759801079470691</v>
       </c>
       <c r="O13">
-        <v>2.125172971972319</v>
+        <v>2.007939976817255</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.476971232335984</v>
+        <v>4.159528416446221</v>
       </c>
       <c r="C14">
-        <v>0.2699073468685924</v>
+        <v>0.5619463198664789</v>
       </c>
       <c r="D14">
-        <v>0.1157321634183859</v>
+        <v>0.3377919718897147</v>
       </c>
       <c r="E14">
-        <v>0.0912998642850571</v>
+        <v>0.04505822114913727</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4898260289234457</v>
+        <v>0.6046376624622241</v>
       </c>
       <c r="H14">
-        <v>0.5907069308477162</v>
+        <v>0.3561067606319881</v>
       </c>
       <c r="I14">
-        <v>0.5225005409227705</v>
+        <v>0.2756911673078903</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2650335527923318</v>
+        <v>0.5084968430632699</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.029371896627495</v>
+        <v>0.6765160718609451</v>
       </c>
       <c r="O14">
-        <v>2.121705181344737</v>
+        <v>1.979600658279253</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.463416142883773</v>
+        <v>4.113835526670471</v>
       </c>
       <c r="C15">
-        <v>0.2683090146313987</v>
+        <v>0.556999778882016</v>
       </c>
       <c r="D15">
-        <v>0.1146931433546143</v>
+        <v>0.3339167251183</v>
       </c>
       <c r="E15">
-        <v>0.09134106509564965</v>
+        <v>0.0448951945397198</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4888685723478545</v>
+        <v>0.5986311656563998</v>
       </c>
       <c r="H15">
-        <v>0.5906906784070856</v>
+        <v>0.3539701866992147</v>
       </c>
       <c r="I15">
-        <v>0.5228257507394645</v>
+        <v>0.2745235308552409</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2636322943072997</v>
+        <v>0.5029463267017746</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.029783006365776</v>
+        <v>0.6768686600650113</v>
       </c>
       <c r="O15">
-        <v>2.119609948259125</v>
+        <v>1.962350625294647</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.385736096961352</v>
+        <v>3.852404113917089</v>
       </c>
       <c r="C16">
-        <v>0.2591313498184888</v>
+        <v>0.5286664199196878</v>
       </c>
       <c r="D16">
-        <v>0.1087495409935428</v>
+        <v>0.311816334440735</v>
       </c>
       <c r="E16">
-        <v>0.09159177615564751</v>
+        <v>0.04399559707835365</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4834974719523046</v>
+        <v>0.5647033066447307</v>
       </c>
       <c r="H16">
-        <v>0.5906932624972114</v>
+        <v>0.341996908900569</v>
       </c>
       <c r="I16">
-        <v>0.5247967539982454</v>
+        <v>0.2681587879195853</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2556340653140268</v>
+        <v>0.4712941490020768</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.032263754880077</v>
+        <v>0.6792533874312241</v>
       </c>
       <c r="O16">
-        <v>2.108045482585482</v>
+        <v>1.865106037498009</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.338082189382931</v>
+        <v>3.692364925715708</v>
       </c>
       <c r="C17">
-        <v>0.2534850160134852</v>
+        <v>0.5112941026982298</v>
       </c>
       <c r="D17">
-        <v>0.1051128046401004</v>
+        <v>0.2983485134533197</v>
       </c>
       <c r="E17">
-        <v>0.09175861400752083</v>
+        <v>0.04347372206844824</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4803055578262416</v>
+        <v>0.5443100577409297</v>
       </c>
       <c r="H17">
-        <v>0.5907802550330246</v>
+        <v>0.3348842784327672</v>
       </c>
       <c r="I17">
-        <v>0.5261016013070545</v>
+        <v>0.2645351603884514</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.250755886823228</v>
+        <v>0.4520081130306011</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.033897095851607</v>
+        <v>0.6810326211202877</v>
       </c>
       <c r="O17">
-        <v>2.101345532180403</v>
+        <v>1.806825013516715</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.310673602694294</v>
+        <v>3.600427921008304</v>
       </c>
       <c r="C18">
-        <v>0.2502315317249497</v>
+        <v>0.5013044360723029</v>
       </c>
       <c r="D18">
-        <v>0.1030245350455345</v>
+        <v>0.2906331493680199</v>
       </c>
       <c r="E18">
-        <v>0.0918593655977098</v>
+        <v>0.04318422422215384</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4785074735495698</v>
+        <v>0.5327273762930389</v>
       </c>
       <c r="H18">
-        <v>0.5908616754572336</v>
+        <v>0.3308753436869551</v>
       </c>
       <c r="I18">
-        <v>0.5268872464198893</v>
+        <v>0.2625501640544314</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2479605860896044</v>
+        <v>0.4409608280374755</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.034877552242577</v>
+        <v>0.6821688607929417</v>
       </c>
       <c r="O18">
-        <v>2.097636727702849</v>
+        <v>1.77378566971808</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.30139369774173</v>
+        <v>3.569318000356418</v>
       </c>
       <c r="C19">
-        <v>0.249128957298808</v>
+        <v>0.4979224342253019</v>
       </c>
       <c r="D19">
-        <v>0.1023180817899743</v>
+        <v>0.2880259824404732</v>
       </c>
       <c r="E19">
-        <v>0.09189430125258902</v>
+        <v>0.04308800515950217</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4779051628861737</v>
+        <v>0.5288302277580499</v>
       </c>
       <c r="H19">
-        <v>0.5908946331375944</v>
+        <v>0.3295317660759167</v>
       </c>
       <c r="I19">
-        <v>0.527159282588272</v>
+        <v>0.2618947468657211</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2470159516110186</v>
+        <v>0.4372279676796893</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.035216563181883</v>
+        <v>0.6825726467136377</v>
       </c>
       <c r="O19">
-        <v>2.096405851730111</v>
+        <v>1.762679827241726</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.343154971754416</v>
+        <v>3.70938938280932</v>
       </c>
       <c r="C20">
-        <v>0.2540866861285451</v>
+        <v>0.5131431423971264</v>
       </c>
       <c r="D20">
-        <v>0.1054995808486012</v>
+        <v>0.2997789336776862</v>
       </c>
       <c r="E20">
-        <v>0.09174035801090419</v>
+        <v>0.04352816431897288</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4806414268732055</v>
+        <v>0.5464655761490889</v>
       </c>
       <c r="H20">
-        <v>0.590767746286204</v>
+        <v>0.3356328614685111</v>
       </c>
       <c r="I20">
-        <v>0.5259590612465104</v>
+        <v>0.2649105439012374</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2512740914541922</v>
+        <v>0.4540563698333813</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.033718981119875</v>
+        <v>0.6808314624580305</v>
       </c>
       <c r="O20">
-        <v>2.102043760869492</v>
+        <v>1.812978694866871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.483471222521644</v>
+        <v>4.181447202485685</v>
       </c>
       <c r="C21">
-        <v>0.2706734650839451</v>
+        <v>0.564318592459415</v>
       </c>
       <c r="D21">
-        <v>0.1162305891467668</v>
+        <v>0.3396522313517778</v>
       </c>
       <c r="E21">
-        <v>0.09128036572015219</v>
+        <v>0.0451370227379897</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4902872041335939</v>
+        <v>0.6075269411022504</v>
       </c>
       <c r="H21">
-        <v>0.5907164176327342</v>
+        <v>0.3571362192787291</v>
       </c>
       <c r="I21">
-        <v>0.5223464943992582</v>
+        <v>0.2762570062532888</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.265706055931318</v>
+        <v>0.5111613236146155</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.029176965626831</v>
+        <v>0.6763535633633211</v>
       </c>
       <c r="O21">
-        <v>2.122717734349294</v>
+        <v>1.987901829970326</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.575169834979931</v>
+        <v>4.4912318440945</v>
       </c>
       <c r="C22">
-        <v>0.2814602647082438</v>
+        <v>0.5978078656972627</v>
       </c>
       <c r="D22">
-        <v>0.1232748624457543</v>
+        <v>0.3660337773024338</v>
       </c>
       <c r="E22">
-        <v>0.09102238246162386</v>
+        <v>0.04629120812418819</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4969293755933393</v>
+        <v>0.6489066754034667</v>
       </c>
       <c r="H22">
-        <v>0.5909623958633148</v>
+        <v>0.3719950373772747</v>
       </c>
       <c r="I22">
-        <v>0.5202991254840228</v>
+        <v>0.28464371712667</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2752309501020278</v>
+        <v>0.5489494487589184</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.026572931974457</v>
+        <v>0.6745052082204239</v>
       </c>
       <c r="O22">
-        <v>2.137521994166804</v>
+        <v>2.107022664718642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526229715572413</v>
+        <v>4.325764842545993</v>
       </c>
       <c r="C23">
-        <v>0.2757081213226229</v>
+        <v>0.5799289611378526</v>
       </c>
       <c r="D23">
-        <v>0.119512375011368</v>
+        <v>0.3519216479986369</v>
       </c>
       <c r="E23">
-        <v>0.09115617133637954</v>
+        <v>0.04566541431911375</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4933533243964519</v>
+        <v>0.6266785133799573</v>
       </c>
       <c r="H23">
-        <v>0.5908055338217508</v>
+        <v>0.3639871784364601</v>
       </c>
       <c r="I23">
-        <v>0.5213631064186472</v>
+        <v>0.2800742923832402</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.270138881046222</v>
+        <v>0.5287354119292047</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.027929439871414</v>
+        <v>0.6753893711143917</v>
       </c>
       <c r="O23">
-        <v>2.129502265796248</v>
+        <v>2.042981154382119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.340861603214705</v>
+        <v>3.701692405350741</v>
       </c>
       <c r="C24">
-        <v>0.2538146938926786</v>
+        <v>0.5123071982897045</v>
       </c>
       <c r="D24">
-        <v>0.1053247114170972</v>
+        <v>0.2991321556452107</v>
       </c>
       <c r="E24">
-        <v>0.09174859648867084</v>
+        <v>0.04350351824652243</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4804894652715745</v>
+        <v>0.5454906267807189</v>
       </c>
       <c r="H24">
-        <v>0.5907733036582243</v>
+        <v>0.335294178042119</v>
       </c>
       <c r="I24">
-        <v>0.5260233931262306</v>
+        <v>0.264740527857569</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2510397823866555</v>
+        <v>0.4531302274031361</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.033799377738717</v>
+        <v>0.6809220540695051</v>
       </c>
       <c r="O24">
-        <v>2.101727646005173</v>
+        <v>1.810195165765975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140944645379761</v>
+        <v>3.032731929873364</v>
       </c>
       <c r="C25">
-        <v>0.2299757161398475</v>
+        <v>0.4394486659651875</v>
       </c>
       <c r="D25">
-        <v>0.09015424437164654</v>
+        <v>0.2433507533933721</v>
       </c>
       <c r="E25">
-        <v>0.09257079424106607</v>
+        <v>0.04157558519206184</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4680587818929496</v>
+        <v>0.4634531461387752</v>
       </c>
       <c r="H25">
-        <v>0.5919383830791816</v>
+        <v>0.3074441782757731</v>
       </c>
       <c r="I25">
-        <v>0.5323929203965143</v>
+        <v>0.2519496345241379</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2308400281045664</v>
+        <v>0.3732876877715086</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.041699082759109</v>
+        <v>0.6911682609326562</v>
       </c>
       <c r="O25">
-        <v>2.077303362587998</v>
+        <v>1.577286434802204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.542434530741559</v>
+        <v>1.139736174741529</v>
       </c>
       <c r="C2">
-        <v>0.3857602711130426</v>
+        <v>0.1611655137882479</v>
       </c>
       <c r="D2">
-        <v>0.2030419564162287</v>
+        <v>0.1913246081872018</v>
       </c>
       <c r="E2">
-        <v>0.04046518820369194</v>
+        <v>0.0318234009627032</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4069988516686891</v>
+        <v>1.127486793179301</v>
       </c>
       <c r="H2">
-        <v>0.2892371628334018</v>
+        <v>0.01027507673710357</v>
       </c>
       <c r="I2">
-        <v>0.2453249509296853</v>
+        <v>0.01187003369632178</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7615353125193849</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8120414085191143</v>
       </c>
       <c r="L2">
-        <v>0.3156585831777363</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.140513992378658</v>
       </c>
       <c r="N2">
-        <v>0.702034929277545</v>
+        <v>0.1658634732029824</v>
       </c>
       <c r="O2">
-        <v>1.418947769074947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2439058928548299</v>
+      </c>
+      <c r="P2">
+        <v>1.409115427271047</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.210952423615311</v>
+        <v>0.9950032492386072</v>
       </c>
       <c r="C3">
-        <v>0.3492982204601276</v>
+        <v>0.1399474040598676</v>
       </c>
       <c r="D3">
-        <v>0.1760925944058869</v>
+        <v>0.1660898314288488</v>
       </c>
       <c r="E3">
-        <v>0.03988775707456327</v>
+        <v>0.02888864237579458</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3708318564749078</v>
+        <v>1.062182614179292</v>
       </c>
       <c r="H3">
-        <v>0.2781643758132475</v>
+        <v>0.01336078342980576</v>
       </c>
       <c r="I3">
-        <v>0.2423798994599444</v>
+        <v>0.01542336320513904</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7353460328335615</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7817728464669429</v>
       </c>
       <c r="L3">
-        <v>0.2771835290480738</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9915342800650251</v>
       </c>
       <c r="N3">
-        <v>0.7113083907443567</v>
+        <v>0.1468936918285166</v>
       </c>
       <c r="O3">
-        <v>1.318705508968662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2138112686899554</v>
+      </c>
+      <c r="P3">
+        <v>1.428661499877236</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.007633031845899</v>
+        <v>0.9059741252530387</v>
       </c>
       <c r="C4">
-        <v>0.3268578843694883</v>
+        <v>0.1271458927119227</v>
       </c>
       <c r="D4">
-        <v>0.1596944272766052</v>
+        <v>0.1507276465849543</v>
       </c>
       <c r="E4">
-        <v>0.03961408190280125</v>
+        <v>0.02708596039510525</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3495436638569203</v>
+        <v>1.022548854955289</v>
       </c>
       <c r="H4">
-        <v>0.2719388589558918</v>
+        <v>0.01553272769721464</v>
       </c>
       <c r="I4">
-        <v>0.2412725307035934</v>
+        <v>0.01796346144846162</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7195789405430162</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7633242048490274</v>
       </c>
       <c r="L4">
-        <v>0.2538030091174193</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9002709806978544</v>
       </c>
       <c r="N4">
-        <v>0.7178937872812767</v>
+        <v>0.1352706768753222</v>
       </c>
       <c r="O4">
-        <v>1.260292645852019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1953186636181812</v>
+      </c>
+      <c r="P4">
+        <v>1.440970696465236</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.924808244172937</v>
+        <v>0.8687788688093008</v>
       </c>
       <c r="C5">
-        <v>0.3176982233406704</v>
+        <v>0.1222078259186219</v>
       </c>
       <c r="D5">
-        <v>0.1530449576901418</v>
+        <v>0.1444955218087642</v>
       </c>
       <c r="E5">
-        <v>0.03952211697123609</v>
+        <v>0.02633164607834093</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3410836386651681</v>
+        <v>1.005382534118155</v>
       </c>
       <c r="H5">
-        <v>0.2695388687259594</v>
+        <v>0.01649197340001179</v>
       </c>
       <c r="I5">
-        <v>0.2409889250148289</v>
+        <v>0.01917915412761584</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7126576007973853</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7550131642988447</v>
       </c>
       <c r="L5">
-        <v>0.244330543858311</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.862840897829102</v>
       </c>
       <c r="N5">
-        <v>0.7207944915786015</v>
+        <v>0.130590355191714</v>
       </c>
       <c r="O5">
-        <v>1.237228868205705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1876766675067998</v>
+      </c>
+      <c r="P5">
+        <v>1.445205887271342</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.911056366596654</v>
+        <v>0.8615385661211405</v>
       </c>
       <c r="C6">
-        <v>0.3161763088831577</v>
+        <v>0.1216708063750929</v>
       </c>
       <c r="D6">
-        <v>0.1519426786179849</v>
+        <v>0.1434608395933878</v>
       </c>
       <c r="E6">
-        <v>0.03950800557788803</v>
+        <v>0.02618356366520658</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3396913989104604</v>
+        <v>1.00116731644151</v>
       </c>
       <c r="H6">
-        <v>0.2691484207404926</v>
+        <v>0.01666388563853555</v>
       </c>
       <c r="I6">
-        <v>0.2409517147608504</v>
+        <v>0.01950811757663029</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7108154483027818</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7526282384296508</v>
       </c>
       <c r="L6">
-        <v>0.2427608206545386</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8562858141343099</v>
       </c>
       <c r="N6">
-        <v>0.7212890642584924</v>
+        <v>0.1298769389622478</v>
       </c>
       <c r="O6">
-        <v>1.233442456362695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1862840018440473</v>
+      </c>
+      <c r="P6">
+        <v>1.444870095349032</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.006515938674227</v>
+        <v>0.9025642032081862</v>
       </c>
       <c r="C7">
-        <v>0.3267344172189013</v>
+        <v>0.12784543082293</v>
       </c>
       <c r="D7">
-        <v>0.1596046227328856</v>
+        <v>0.150639164087508</v>
       </c>
       <c r="E7">
-        <v>0.03961276343504849</v>
+        <v>0.02701357056066644</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3494287185485376</v>
+        <v>1.018570756629614</v>
       </c>
       <c r="H7">
-        <v>0.2719059465459992</v>
+        <v>0.01556778816197502</v>
       </c>
       <c r="I7">
-        <v>0.2412680381316044</v>
+        <v>0.01829424182264106</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.717581824943224</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7604622929869294</v>
       </c>
       <c r="L7">
-        <v>0.2536750438635522</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8988278104917242</v>
       </c>
       <c r="N7">
-        <v>0.7179320372166984</v>
+        <v>0.1353816643570767</v>
       </c>
       <c r="O7">
-        <v>1.259978666359473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1948776056762576</v>
+      </c>
+      <c r="P7">
+        <v>1.438192414775258</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.42808064215069</v>
+        <v>1.085968662999051</v>
       </c>
       <c r="C8">
-        <v>0.3731978875939035</v>
+        <v>0.1548205733799222</v>
       </c>
       <c r="D8">
-        <v>0.1937161309460862</v>
+        <v>0.1825870851187688</v>
       </c>
       <c r="E8">
-        <v>0.04024882825028619</v>
+        <v>0.03072821056519626</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3943280351682859</v>
+        <v>1.099906202977607</v>
       </c>
       <c r="H8">
-        <v>0.2852958584622911</v>
+        <v>0.0113039445251945</v>
       </c>
       <c r="I8">
-        <v>0.2441587281536322</v>
+        <v>0.01339247046553904</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7499238177686891</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7979388620244805</v>
       </c>
       <c r="L8">
-        <v>0.3023382291969909</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.087832401844366</v>
       </c>
       <c r="N8">
-        <v>0.705043033207005</v>
+        <v>0.1595495200218053</v>
       </c>
       <c r="O8">
-        <v>1.383703219902799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2330790479463758</v>
+      </c>
+      <c r="P8">
+        <v>1.412109349363277</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.257636067339718</v>
+        <v>1.449985195454303</v>
       </c>
       <c r="C9">
-        <v>0.4639907238711203</v>
+        <v>0.2084475289703818</v>
       </c>
       <c r="D9">
-        <v>0.2620072917463432</v>
+        <v>0.2464815307675963</v>
       </c>
       <c r="E9">
-        <v>0.04217452836633484</v>
+        <v>0.03816330945182678</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.490422217869579</v>
+        <v>1.270304823879783</v>
       </c>
       <c r="H9">
-        <v>0.3164449484837348</v>
+        <v>0.00523827238349639</v>
       </c>
       <c r="I9">
-        <v>0.2557967807820241</v>
+        <v>0.006311753641647044</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8194553716409558</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8776123140806362</v>
       </c>
       <c r="L9">
-        <v>0.3999829226854956</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.462509911952424</v>
       </c>
       <c r="N9">
-        <v>0.6871778514674745</v>
+        <v>0.2069103675573416</v>
       </c>
       <c r="O9">
-        <v>1.653540146131746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3085767357895435</v>
+      </c>
+      <c r="P9">
+        <v>1.368499697424916</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.870681898383225</v>
+        <v>1.705207754494126</v>
       </c>
       <c r="C10">
-        <v>0.5306491215125391</v>
+        <v>0.252020704034166</v>
       </c>
       <c r="D10">
-        <v>0.3133574552499141</v>
+        <v>0.2944086644771744</v>
       </c>
       <c r="E10">
-        <v>0.04405661794817384</v>
+        <v>0.04187635905603493</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5670507723614691</v>
+        <v>1.378617192843166</v>
       </c>
       <c r="H10">
-        <v>0.3428198736478123</v>
+        <v>0.002702182493956595</v>
       </c>
       <c r="I10">
-        <v>0.2685860018208146</v>
+        <v>0.00337519794722585</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8623914223547615</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9234341126445429</v>
       </c>
       <c r="L10">
-        <v>0.4735011910707954</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.734763076455579</v>
       </c>
       <c r="N10">
-        <v>0.6790658997917447</v>
+        <v>0.2303450854525408</v>
       </c>
       <c r="O10">
-        <v>1.87182332274304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3565904709598584</v>
+      </c>
+      <c r="P10">
+        <v>1.324222373144728</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.150788839156121</v>
+        <v>1.722684840557065</v>
       </c>
       <c r="C11">
-        <v>0.561000331125058</v>
+        <v>0.2922780693395168</v>
       </c>
       <c r="D11">
-        <v>0.3370504759986659</v>
+        <v>0.3161004344872964</v>
       </c>
       <c r="E11">
-        <v>0.04502690881099269</v>
+        <v>0.03261970000668457</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6034870731689068</v>
+        <v>1.26666473126744</v>
       </c>
       <c r="H11">
-        <v>0.3556971099971236</v>
+        <v>0.02124678691714976</v>
       </c>
       <c r="I11">
-        <v>0.2754665862073793</v>
+        <v>0.003343618279613381</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8009466246319761</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8356732554302511</v>
       </c>
       <c r="L11">
-        <v>0.5074347915275439</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.8141899625424</v>
       </c>
       <c r="N11">
-        <v>0.6765820633813178</v>
+        <v>0.1509064855950513</v>
       </c>
       <c r="O11">
-        <v>1.976295528935708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3155704548003442</v>
+      </c>
+      <c r="P11">
+        <v>1.199727468702449</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.257073379425321</v>
+        <v>1.687278169625245</v>
       </c>
       <c r="C12">
-        <v>0.5725007969091678</v>
+        <v>0.3169328164825629</v>
       </c>
       <c r="D12">
-        <v>0.3460771673071008</v>
+        <v>0.3242018448463</v>
       </c>
       <c r="E12">
-        <v>0.04541185970119344</v>
+        <v>0.03054994897471941</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6175352541463468</v>
+        <v>1.158200823411818</v>
       </c>
       <c r="H12">
-        <v>0.3607106168516623</v>
+        <v>0.06013607637621732</v>
       </c>
       <c r="I12">
-        <v>0.2782376069484442</v>
+        <v>0.003283422896298127</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7442636026426612</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7595957971434331</v>
       </c>
       <c r="L12">
-        <v>0.5203639984138988</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.82419809933171</v>
       </c>
       <c r="N12">
-        <v>0.6758255385101535</v>
+        <v>0.0944679998208855</v>
       </c>
       <c r="O12">
-        <v>2.016673674072734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2737532176532405</v>
+      </c>
+      <c r="P12">
+        <v>1.119161937697839</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.234172952391475</v>
+        <v>1.604700498900655</v>
       </c>
       <c r="C13">
-        <v>0.5700235966729394</v>
+        <v>0.3318750833645367</v>
       </c>
       <c r="D13">
-        <v>0.3441305653003468</v>
+        <v>0.3221453212389633</v>
       </c>
       <c r="E13">
-        <v>0.04532815584812511</v>
+        <v>0.03365351219604307</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6144981886181995</v>
+        <v>1.040321514829216</v>
       </c>
       <c r="H13">
-        <v>0.359624587917267</v>
+        <v>0.11635515804889</v>
       </c>
       <c r="I13">
-        <v>0.277633246505161</v>
+        <v>0.003584870873843293</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6849576714681831</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6838663920364141</v>
       </c>
       <c r="L13">
-        <v>0.5175757880448373</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.779572351268854</v>
       </c>
       <c r="N13">
-        <v>0.6759801079470691</v>
+        <v>0.05290202004044531</v>
       </c>
       <c r="O13">
-        <v>2.007939976817255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.228674861105624</v>
+      </c>
+      <c r="P13">
+        <v>1.062680595537444</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.159528416446221</v>
+        <v>1.525167654423683</v>
       </c>
       <c r="C14">
-        <v>0.5619463198664789</v>
+        <v>0.3382655514421629</v>
       </c>
       <c r="D14">
-        <v>0.3377919718897147</v>
+        <v>0.3161105710739207</v>
       </c>
       <c r="E14">
-        <v>0.04505822114913727</v>
+        <v>0.03895903357319952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6046376624622241</v>
+        <v>0.9537310575087901</v>
       </c>
       <c r="H14">
-        <v>0.3561067606319881</v>
+        <v>0.1661546844655959</v>
       </c>
       <c r="I14">
-        <v>0.2756911673078903</v>
+        <v>0.004084803327917719</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6422878473405973</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6312245278028712</v>
       </c>
       <c r="L14">
-        <v>0.5084968430632699</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.723503215040182</v>
       </c>
       <c r="N14">
-        <v>0.6765160718609451</v>
+        <v>0.03287826067946042</v>
       </c>
       <c r="O14">
-        <v>1.979600658279253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1962219471000033</v>
+      </c>
+      <c r="P14">
+        <v>1.034967003069475</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.113835526670471</v>
+        <v>1.494909458522812</v>
       </c>
       <c r="C15">
-        <v>0.556999778882016</v>
+        <v>0.3379482919689281</v>
       </c>
       <c r="D15">
-        <v>0.3339167251183</v>
+        <v>0.3124796012881461</v>
       </c>
       <c r="E15">
-        <v>0.0448951945397198</v>
+        <v>0.04050694553075473</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5986311656563998</v>
+        <v>0.9292275548498026</v>
       </c>
       <c r="H15">
-        <v>0.3539701866992147</v>
+        <v>0.1788761814689224</v>
       </c>
       <c r="I15">
-        <v>0.2745235308552409</v>
+        <v>0.00443790361189933</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6306437569091372</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6173383990375569</v>
       </c>
       <c r="L15">
-        <v>0.5029463267017746</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.698015817755277</v>
       </c>
       <c r="N15">
-        <v>0.6768686600650113</v>
+        <v>0.02916349588716116</v>
       </c>
       <c r="O15">
-        <v>1.962350625294647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1873005186640526</v>
+      </c>
+      <c r="P15">
+        <v>1.031406932398138</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.852404113917089</v>
+        <v>1.402122143778001</v>
       </c>
       <c r="C16">
-        <v>0.5286664199196878</v>
+        <v>0.3157738059717019</v>
       </c>
       <c r="D16">
-        <v>0.311816334440735</v>
+        <v>0.2919852788506034</v>
       </c>
       <c r="E16">
-        <v>0.04399559707835365</v>
+        <v>0.03813730946783878</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5647033066447307</v>
+        <v>0.9058913967376157</v>
       </c>
       <c r="H16">
-        <v>0.341996908900569</v>
+        <v>0.1672438107164709</v>
       </c>
       <c r="I16">
-        <v>0.2681587879195853</v>
+        <v>0.005706848711263923</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.623619233260257</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6124657693840447</v>
       </c>
       <c r="L16">
-        <v>0.4712941490020768</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.589664860337422</v>
       </c>
       <c r="N16">
-        <v>0.6792533874312241</v>
+        <v>0.02894170756508707</v>
       </c>
       <c r="O16">
-        <v>1.865106037498009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1770268559781982</v>
+      </c>
+      <c r="P16">
+        <v>1.059017038926015</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.692364925715708</v>
+        <v>1.372886982564978</v>
       </c>
       <c r="C17">
-        <v>0.5112941026982298</v>
+        <v>0.295488053063039</v>
       </c>
       <c r="D17">
-        <v>0.2983485134533197</v>
+        <v>0.2795595186531159</v>
       </c>
       <c r="E17">
-        <v>0.04347372206844824</v>
+        <v>0.03295273769976514</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5443100577409297</v>
+        <v>0.9333724476528857</v>
       </c>
       <c r="H17">
-        <v>0.3348842784327672</v>
+        <v>0.1300918002422975</v>
       </c>
       <c r="I17">
-        <v>0.2645351603884514</v>
+        <v>0.006469653768062855</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6406609585181116</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6361351888675557</v>
       </c>
       <c r="L17">
-        <v>0.4520081130306011</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.536472260510891</v>
       </c>
       <c r="N17">
-        <v>0.6810326211202877</v>
+        <v>0.03778005434634224</v>
       </c>
       <c r="O17">
-        <v>1.806825013516715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.185895145934218</v>
+      </c>
+      <c r="P17">
+        <v>1.094220736559333</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.600427921008304</v>
+        <v>1.397137282219546</v>
       </c>
       <c r="C18">
-        <v>0.5013044360723029</v>
+        <v>0.2741046080590905</v>
       </c>
       <c r="D18">
-        <v>0.2906331493680199</v>
+        <v>0.2725536098466677</v>
       </c>
       <c r="E18">
-        <v>0.04318422422215384</v>
+        <v>0.02782328786324184</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5327273762930389</v>
+        <v>1.01225899274958</v>
       </c>
       <c r="H18">
-        <v>0.3308753436869551</v>
+        <v>0.0773403661144485</v>
       </c>
       <c r="I18">
-        <v>0.2625501640544314</v>
+        <v>0.006421127723393205</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6825408517958635</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6908637885698923</v>
       </c>
       <c r="L18">
-        <v>0.4409608280374755</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.524899254281848</v>
       </c>
       <c r="N18">
-        <v>0.6821688607929417</v>
+        <v>0.06324799913626578</v>
       </c>
       <c r="O18">
-        <v>1.77378566971808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2138656873671252</v>
+      </c>
+      <c r="P18">
+        <v>1.146825534953088</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.569318000356418</v>
+        <v>1.457575822666172</v>
       </c>
       <c r="C19">
-        <v>0.4979224342253019</v>
+        <v>0.2557592498505414</v>
       </c>
       <c r="D19">
-        <v>0.2880259824404732</v>
+        <v>0.2703539914049173</v>
       </c>
       <c r="E19">
-        <v>0.04308800515950217</v>
+        <v>0.02768831845840269</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5288302277580499</v>
+        <v>1.124512844455722</v>
       </c>
       <c r="H19">
-        <v>0.3295317660759167</v>
+        <v>0.03152758396785771</v>
       </c>
       <c r="I19">
-        <v>0.2618947468657211</v>
+        <v>0.006266539492060019</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7400127231464779</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7658361237261744</v>
       </c>
       <c r="L19">
-        <v>0.4372279676796893</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.545549453456147</v>
       </c>
       <c r="N19">
-        <v>0.6825726467136377</v>
+        <v>0.1123406175351462</v>
       </c>
       <c r="O19">
-        <v>1.762679827241726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2570320580661338</v>
+      </c>
+      <c r="P19">
+        <v>1.214984446828844</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.70938938280932</v>
+        <v>1.628368711456545</v>
       </c>
       <c r="C20">
-        <v>0.5131431423971264</v>
+        <v>0.2429946229502491</v>
       </c>
       <c r="D20">
-        <v>0.2997789336776862</v>
+        <v>0.281717698838662</v>
       </c>
       <c r="E20">
-        <v>0.04352816431897288</v>
+        <v>0.04061996032701209</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5464655761490889</v>
+        <v>1.337521176100807</v>
       </c>
       <c r="H20">
-        <v>0.3356328614685111</v>
+        <v>0.003277323646037278</v>
       </c>
       <c r="I20">
-        <v>0.2649105439012374</v>
+        <v>0.004882250091052143</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.844718111592897</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9023216052974661</v>
       </c>
       <c r="L20">
-        <v>0.4540563698333813</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.659798897767359</v>
       </c>
       <c r="N20">
-        <v>0.6808314624580305</v>
+        <v>0.2242298152150255</v>
       </c>
       <c r="O20">
-        <v>1.812978694866871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3425904256071419</v>
+      </c>
+      <c r="P20">
+        <v>1.326970937946719</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.181447202485685</v>
+        <v>1.842892318030579</v>
       </c>
       <c r="C21">
-        <v>0.564318592459415</v>
+        <v>0.273467635663323</v>
       </c>
       <c r="D21">
-        <v>0.3396522313517778</v>
+        <v>0.3189713556636349</v>
       </c>
       <c r="E21">
-        <v>0.0451370227379897</v>
+        <v>0.04635159227902186</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6075269411022504</v>
+        <v>1.452758793004165</v>
       </c>
       <c r="H21">
-        <v>0.3571362192787291</v>
+        <v>0.001403527598931698</v>
       </c>
       <c r="I21">
-        <v>0.2762570062532888</v>
+        <v>0.003047604086616751</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.893897513026559</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9588989002697019</v>
       </c>
       <c r="L21">
-        <v>0.5111613236146155</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.878003501542622</v>
       </c>
       <c r="N21">
-        <v>0.6763535633633211</v>
+        <v>0.2604186053249151</v>
       </c>
       <c r="O21">
-        <v>1.987901829970326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3911468878661069</v>
+      </c>
+      <c r="P21">
+        <v>1.315175718139628</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.4912318440945</v>
+        <v>1.981789544489288</v>
       </c>
       <c r="C22">
-        <v>0.5978078656972627</v>
+        <v>0.2938703544630243</v>
       </c>
       <c r="D22">
-        <v>0.3660337773024338</v>
+        <v>0.3435884580640192</v>
       </c>
       <c r="E22">
-        <v>0.04629120812418819</v>
+        <v>0.04930050242044359</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6489066754034667</v>
+        <v>1.524491474790892</v>
       </c>
       <c r="H22">
-        <v>0.3719950373772747</v>
+        <v>0.000676726128486127</v>
       </c>
       <c r="I22">
-        <v>0.28464371712667</v>
+        <v>0.001997537071265043</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9242860074487851</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9934110024121736</v>
       </c>
       <c r="L22">
-        <v>0.5489494487589184</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.020182267300783</v>
       </c>
       <c r="N22">
-        <v>0.6745052082204239</v>
+        <v>0.2779423931014406</v>
       </c>
       <c r="O22">
-        <v>2.107022664718642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4196519097122646</v>
+      </c>
+      <c r="P22">
+        <v>1.304795497665793</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.325764842545993</v>
+        <v>1.911214082315581</v>
       </c>
       <c r="C23">
-        <v>0.5799289611378526</v>
+        <v>0.2819986505223682</v>
       </c>
       <c r="D23">
-        <v>0.3519216479986369</v>
+        <v>0.3304322744800032</v>
       </c>
       <c r="E23">
-        <v>0.04566541431911375</v>
+        <v>0.04779846754978401</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6266785133799573</v>
+        <v>1.490543850870438</v>
       </c>
       <c r="H23">
-        <v>0.3639871784364601</v>
+        <v>0.001025110406221552</v>
       </c>
       <c r="I23">
-        <v>0.2800742923832402</v>
+        <v>0.002189534633049384</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9102450967654363</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9781850778292167</v>
       </c>
       <c r="L23">
-        <v>0.5287354119292047</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.94540251988991</v>
       </c>
       <c r="N23">
-        <v>0.6753893711143917</v>
+        <v>0.2683656681637814</v>
       </c>
       <c r="O23">
-        <v>2.042981154382119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4048477029819537</v>
+      </c>
+      <c r="P23">
+        <v>1.31338059873201</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.701692405350741</v>
+        <v>1.638787427839191</v>
       </c>
       <c r="C24">
-        <v>0.5123071982897045</v>
+        <v>0.2394537954930769</v>
       </c>
       <c r="D24">
-        <v>0.2991321556452107</v>
+        <v>0.2811596451963823</v>
       </c>
       <c r="E24">
-        <v>0.04350351824652243</v>
+        <v>0.04207096563273183</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5454906267807189</v>
+        <v>1.356909867598432</v>
       </c>
       <c r="H24">
-        <v>0.335294178042119</v>
+        <v>0.003061241392140701</v>
       </c>
       <c r="I24">
-        <v>0.264740527857569</v>
+        <v>0.004323149798555193</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8546096499385669</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9161334313259246</v>
       </c>
       <c r="L24">
-        <v>0.4531302274031361</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.661929034207816</v>
       </c>
       <c r="N24">
-        <v>0.6809220540695051</v>
+        <v>0.2326301282561474</v>
       </c>
       <c r="O24">
-        <v>1.810195165765975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3482674494737523</v>
+      </c>
+      <c r="P24">
+        <v>1.341987237675504</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032731929873364</v>
+        <v>1.346161831350571</v>
       </c>
       <c r="C25">
-        <v>0.4394486659651875</v>
+        <v>0.1950811883846342</v>
       </c>
       <c r="D25">
-        <v>0.2433507533933721</v>
+        <v>0.2290250621801988</v>
       </c>
       <c r="E25">
-        <v>0.04157558519206184</v>
+        <v>0.03602708443304081</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4634531461387752</v>
+        <v>1.216905125320977</v>
       </c>
       <c r="H25">
-        <v>0.3074441782757731</v>
+        <v>0.006635318260450274</v>
       </c>
       <c r="I25">
-        <v>0.2519496345241379</v>
+        <v>0.008386423693085732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7968982392406332</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8509413802082904</v>
       </c>
       <c r="L25">
-        <v>0.3732876877715086</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.359043870768062</v>
       </c>
       <c r="N25">
-        <v>0.6911682609326562</v>
+        <v>0.1943772411474001</v>
       </c>
       <c r="O25">
-        <v>1.577286434802204</v>
+        <v>0.2875165243537694</v>
+      </c>
+      <c r="P25">
+        <v>1.375103032246805</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139736174741529</v>
+        <v>1.033381179959292</v>
       </c>
       <c r="C2">
-        <v>0.1611655137882479</v>
+        <v>0.1818711419762735</v>
       </c>
       <c r="D2">
-        <v>0.1913246081872018</v>
+        <v>0.1919052373583838</v>
       </c>
       <c r="E2">
-        <v>0.0318234009627032</v>
+        <v>0.03025146400729817</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.127486793179301</v>
+        <v>0.9557656170940589</v>
       </c>
       <c r="H2">
-        <v>0.01027507673710357</v>
+        <v>0.008249023488875074</v>
       </c>
       <c r="I2">
-        <v>0.01187003369632178</v>
+        <v>0.008685878161717397</v>
       </c>
       <c r="J2">
-        <v>0.7615353125193849</v>
+        <v>0.6890186125671107</v>
       </c>
       <c r="K2">
-        <v>0.8120414085191143</v>
+        <v>0.6815758482260321</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.287386474665503</v>
       </c>
       <c r="M2">
-        <v>1.140513992378658</v>
+        <v>0.2254201545774528</v>
       </c>
       <c r="N2">
-        <v>0.1658634732029824</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2439058928548299</v>
+        <v>1.11174783723709</v>
       </c>
       <c r="P2">
-        <v>1.409115427271047</v>
+        <v>0.1794292005437867</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2316997302498294</v>
+      </c>
+      <c r="R2">
+        <v>1.26069910856085</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9950032492386072</v>
+        <v>0.9049969315533417</v>
       </c>
       <c r="C3">
-        <v>0.1399474040598676</v>
+        <v>0.1560528321117971</v>
       </c>
       <c r="D3">
-        <v>0.1660898314288488</v>
+        <v>0.1666605622346964</v>
       </c>
       <c r="E3">
-        <v>0.02888864237579458</v>
+        <v>0.02778014281298358</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.062182614179292</v>
+        <v>0.9110577237518953</v>
       </c>
       <c r="H3">
-        <v>0.01336078342980576</v>
+        <v>0.01076022246503816</v>
       </c>
       <c r="I3">
-        <v>0.01542336320513904</v>
+        <v>0.01129819018948952</v>
       </c>
       <c r="J3">
-        <v>0.7353460328335615</v>
+        <v>0.6656876792981734</v>
       </c>
       <c r="K3">
-        <v>0.7817728464669429</v>
+        <v>0.6631086651064777</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2865091383280927</v>
       </c>
       <c r="M3">
-        <v>0.9915342800650251</v>
+        <v>0.2139935164941171</v>
       </c>
       <c r="N3">
-        <v>0.1468936918285166</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2138112686899554</v>
+        <v>0.9680417005137087</v>
       </c>
       <c r="P3">
-        <v>1.428661499877236</v>
+        <v>0.1596033628316036</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2035447323210704</v>
+      </c>
+      <c r="R3">
+        <v>1.288462134855138</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9059741252530387</v>
+        <v>0.825748152161168</v>
       </c>
       <c r="C4">
-        <v>0.1271458927119227</v>
+        <v>0.1405046684587603</v>
       </c>
       <c r="D4">
-        <v>0.1507276465849543</v>
+        <v>0.1512817177318198</v>
       </c>
       <c r="E4">
-        <v>0.02708596039510525</v>
+        <v>0.02625553815575277</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.022548854955289</v>
+        <v>0.8840402473974791</v>
       </c>
       <c r="H4">
-        <v>0.01553272769721464</v>
+        <v>0.01253145248018314</v>
       </c>
       <c r="I4">
-        <v>0.01796346144846162</v>
+        <v>0.0131873122408166</v>
       </c>
       <c r="J4">
-        <v>0.7195789405430162</v>
+        <v>0.6513165531364962</v>
       </c>
       <c r="K4">
-        <v>0.7633242048490274</v>
+        <v>0.6517617587829179</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2857743317076</v>
       </c>
       <c r="M4">
-        <v>0.9002709806978544</v>
+        <v>0.2076930209054026</v>
       </c>
       <c r="N4">
-        <v>0.1352706768753222</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1953186636181812</v>
+        <v>0.8798418211990509</v>
       </c>
       <c r="P4">
-        <v>1.440970696465236</v>
+        <v>0.1474605292609183</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1862123591082394</v>
+      </c>
+      <c r="R4">
+        <v>1.30581119024572</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8687788688093008</v>
+        <v>0.7925451388854583</v>
       </c>
       <c r="C5">
-        <v>0.1222078259186219</v>
+        <v>0.1344869623339378</v>
       </c>
       <c r="D5">
-        <v>0.1444955218087642</v>
+        <v>0.145040595893235</v>
       </c>
       <c r="E5">
-        <v>0.02633164607834093</v>
+        <v>0.0256151316329305</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.005382534118155</v>
+        <v>0.8721430596059605</v>
       </c>
       <c r="H5">
-        <v>0.01649197340001179</v>
+        <v>0.01331469554417261</v>
       </c>
       <c r="I5">
-        <v>0.01917915412761584</v>
+        <v>0.01413020468964099</v>
       </c>
       <c r="J5">
-        <v>0.7126576007973853</v>
+        <v>0.6449222223860573</v>
       </c>
       <c r="K5">
-        <v>0.7550131642988447</v>
+        <v>0.6464217168412389</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2851090613709673</v>
       </c>
       <c r="M5">
-        <v>0.862840897829102</v>
+        <v>0.2050868233474858</v>
       </c>
       <c r="N5">
-        <v>0.130590355191714</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1876766675067998</v>
+        <v>0.8436333260596314</v>
       </c>
       <c r="P5">
-        <v>1.445205887271342</v>
+        <v>0.1425690309176417</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1790419870645472</v>
+      </c>
+      <c r="R5">
+        <v>1.312275365420057</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8615385661211405</v>
+        <v>0.7860480108428192</v>
       </c>
       <c r="C6">
-        <v>0.1216708063750929</v>
+        <v>0.1337966797441794</v>
       </c>
       <c r="D6">
-        <v>0.1434608395933878</v>
+        <v>0.1440044124151569</v>
       </c>
       <c r="E6">
-        <v>0.02618356366520658</v>
+        <v>0.02548836033659185</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.00116731644151</v>
+        <v>0.8689677605325556</v>
       </c>
       <c r="H6">
-        <v>0.01666388563853555</v>
+        <v>0.0134552695193286</v>
       </c>
       <c r="I6">
-        <v>0.01950811757663029</v>
+        <v>0.01442666460882691</v>
       </c>
       <c r="J6">
-        <v>0.7108154483027818</v>
+        <v>0.6432180160134493</v>
       </c>
       <c r="K6">
-        <v>0.7526282384296508</v>
+        <v>0.6446651868257689</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2846099348136875</v>
       </c>
       <c r="M6">
-        <v>0.8562858141343099</v>
+        <v>0.2043990024290494</v>
       </c>
       <c r="N6">
-        <v>0.1298769389622478</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1862840018440473</v>
+        <v>0.8372959131374671</v>
       </c>
       <c r="P6">
-        <v>1.444870095349032</v>
+        <v>0.1418193521632531</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1777346290128996</v>
+      </c>
+      <c r="R6">
+        <v>1.312525656801967</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9025642032081862</v>
+        <v>0.8219084552431184</v>
       </c>
       <c r="C7">
-        <v>0.12784543082293</v>
+        <v>0.1407591544713114</v>
       </c>
       <c r="D7">
-        <v>0.150639164087508</v>
+        <v>0.1511906468744684</v>
       </c>
       <c r="E7">
-        <v>0.02701357056066644</v>
+        <v>0.02621610332042845</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.018570756629614</v>
+        <v>0.8840130376866142</v>
       </c>
       <c r="H7">
-        <v>0.01556778816197502</v>
+        <v>0.01257010660211405</v>
       </c>
       <c r="I7">
-        <v>0.01829424182264106</v>
+        <v>0.01356317027405396</v>
       </c>
       <c r="J7">
-        <v>0.717581824943224</v>
+        <v>0.6425314491532674</v>
       </c>
       <c r="K7">
-        <v>0.7604622929869294</v>
+        <v>0.6482215960433706</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2842540756349514</v>
       </c>
       <c r="M7">
-        <v>0.8988278104917242</v>
+        <v>0.2065698322777259</v>
       </c>
       <c r="N7">
-        <v>0.1353816643570767</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1948776056762576</v>
+        <v>0.8770711119083785</v>
       </c>
       <c r="P7">
-        <v>1.438192414775258</v>
+        <v>0.147511925779618</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1856685906946005</v>
+      </c>
+      <c r="R7">
+        <v>1.302495177104426</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.085968662999051</v>
+        <v>0.9832285268348073</v>
       </c>
       <c r="C8">
-        <v>0.1548205733799222</v>
+        <v>0.1723368732738066</v>
       </c>
       <c r="D8">
-        <v>0.1825870851187688</v>
+        <v>0.1831565058831899</v>
       </c>
       <c r="E8">
-        <v>0.03072821056519626</v>
+        <v>0.02941007643990279</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.099906202977607</v>
+        <v>0.9473884741977088</v>
       </c>
       <c r="H8">
-        <v>0.0113039445251945</v>
+        <v>0.009111462984114374</v>
       </c>
       <c r="I8">
-        <v>0.01339247046553904</v>
+        <v>0.009979696637751445</v>
       </c>
       <c r="J8">
-        <v>0.7499238177686891</v>
+        <v>0.6558728382505734</v>
       </c>
       <c r="K8">
-        <v>0.7979388620244805</v>
+        <v>0.6684939927310367</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2843617670838405</v>
       </c>
       <c r="M8">
-        <v>1.087832401844366</v>
+        <v>0.2190593485764722</v>
       </c>
       <c r="N8">
-        <v>0.1595495200218053</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2330790479463758</v>
+        <v>1.056319981263897</v>
       </c>
       <c r="P8">
-        <v>1.412109349363277</v>
+        <v>0.1726382990274189</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2211423929009051</v>
+      </c>
+      <c r="R8">
+        <v>1.263651319255203</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.449985195454303</v>
+        <v>1.303895442995412</v>
       </c>
       <c r="C9">
-        <v>0.2084475289703818</v>
+        <v>0.237289180667787</v>
       </c>
       <c r="D9">
-        <v>0.2464815307675963</v>
+        <v>0.2469932220281947</v>
       </c>
       <c r="E9">
-        <v>0.03816330945182678</v>
+        <v>0.03565985218373768</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.270304823879783</v>
+        <v>1.068948064641319</v>
       </c>
       <c r="H9">
-        <v>0.00523827238349639</v>
+        <v>0.004187933863403548</v>
       </c>
       <c r="I9">
-        <v>0.006311753641647044</v>
+        <v>0.004754780596272212</v>
       </c>
       <c r="J9">
-        <v>0.8194553716409558</v>
+        <v>0.7096416317676244</v>
       </c>
       <c r="K9">
-        <v>0.8776123140806362</v>
+        <v>0.716471245480534</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2864697697580993</v>
       </c>
       <c r="M9">
-        <v>1.462509911952424</v>
+        <v>0.2519951283419104</v>
       </c>
       <c r="N9">
-        <v>0.2069103675573416</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3085767357895435</v>
+        <v>1.415285172664085</v>
       </c>
       <c r="P9">
-        <v>1.368499697424916</v>
+        <v>0.2221097363628814</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2914546899307382</v>
+      </c>
+      <c r="R9">
+        <v>1.198033140530441</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.705207754494126</v>
+        <v>1.523778083434536</v>
       </c>
       <c r="C10">
-        <v>0.252020704034166</v>
+        <v>0.2863197349907693</v>
       </c>
       <c r="D10">
-        <v>0.2944086644771744</v>
+        <v>0.2947698670739953</v>
       </c>
       <c r="E10">
-        <v>0.04187635905603493</v>
+        <v>0.03880278493350264</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.378617192843166</v>
+        <v>1.165763490836781</v>
       </c>
       <c r="H10">
-        <v>0.002702182493956595</v>
+        <v>0.002202782759276989</v>
       </c>
       <c r="I10">
-        <v>0.00337519794722585</v>
+        <v>0.00277027178105449</v>
       </c>
       <c r="J10">
-        <v>0.8623914223547615</v>
+        <v>0.7024524835117774</v>
       </c>
       <c r="K10">
-        <v>0.9234341126445429</v>
+        <v>0.7352920569507617</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2811653749451395</v>
       </c>
       <c r="M10">
-        <v>1.734763076455579</v>
+        <v>0.2732673600975559</v>
       </c>
       <c r="N10">
-        <v>0.2303450854525408</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3565904709598584</v>
+        <v>1.667104398624048</v>
       </c>
       <c r="P10">
-        <v>1.324222373144728</v>
+        <v>0.2463181370147112</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3351043139371512</v>
+      </c>
+      <c r="R10">
+        <v>1.13651993607845</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.722684840557065</v>
+        <v>1.537671405377466</v>
       </c>
       <c r="C11">
-        <v>0.2922780693395168</v>
+        <v>0.3214174946324988</v>
       </c>
       <c r="D11">
-        <v>0.3161004344872964</v>
+        <v>0.3163845576210633</v>
       </c>
       <c r="E11">
-        <v>0.03261970000668457</v>
+        <v>0.0309038673387767</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.26666473126744</v>
+        <v>1.114195356122877</v>
       </c>
       <c r="H11">
-        <v>0.02124678691714976</v>
+        <v>0.02082723899105687</v>
       </c>
       <c r="I11">
-        <v>0.003343618279613381</v>
+        <v>0.003049086373251519</v>
       </c>
       <c r="J11">
-        <v>0.8009466246319761</v>
+        <v>0.5808562516140228</v>
       </c>
       <c r="K11">
-        <v>0.8356732554302511</v>
+        <v>0.6528597730080605</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2469644827877353</v>
       </c>
       <c r="M11">
-        <v>1.8141899625424</v>
+        <v>0.2469000316979262</v>
       </c>
       <c r="N11">
-        <v>0.1509064855950513</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3155704548003442</v>
+        <v>1.728382925100618</v>
       </c>
       <c r="P11">
-        <v>1.199727468702449</v>
+        <v>0.1629732388671741</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2944539907008803</v>
+      </c>
+      <c r="R11">
+        <v>1.036334716677864</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.687278169625245</v>
+        <v>1.50924304348888</v>
       </c>
       <c r="C12">
-        <v>0.3169328164825629</v>
+        <v>0.3417071238135918</v>
       </c>
       <c r="D12">
-        <v>0.3242018448463</v>
+        <v>0.3244748324332107</v>
       </c>
       <c r="E12">
-        <v>0.03054994897471941</v>
+        <v>0.02966096156881326</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.158200823411818</v>
+        <v>1.042872715151404</v>
       </c>
       <c r="H12">
-        <v>0.06013607637621732</v>
+        <v>0.05971098596038615</v>
       </c>
       <c r="I12">
-        <v>0.003283422896298127</v>
+        <v>0.003013752673213688</v>
       </c>
       <c r="J12">
-        <v>0.7442636026426612</v>
+        <v>0.5118927291817812</v>
       </c>
       <c r="K12">
-        <v>0.7595957971434331</v>
+        <v>0.5901934754706275</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2236551013333425</v>
       </c>
       <c r="M12">
-        <v>1.82419809933171</v>
+        <v>0.2237212516838412</v>
       </c>
       <c r="N12">
-        <v>0.0944679998208855</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2737532176532405</v>
+        <v>1.732679233428001</v>
       </c>
       <c r="P12">
-        <v>1.119161937697839</v>
+        <v>0.1035962270166237</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2543419488102465</v>
+      </c>
+      <c r="R12">
+        <v>0.9823791315200623</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.604700498900655</v>
+        <v>1.444315368560609</v>
       </c>
       <c r="C13">
-        <v>0.3318750833645367</v>
+        <v>0.3545538218901356</v>
       </c>
       <c r="D13">
-        <v>0.3221453212389633</v>
+        <v>0.3224757811471761</v>
       </c>
       <c r="E13">
-        <v>0.03365351219604307</v>
+        <v>0.03348813212090818</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.040321514829216</v>
+        <v>0.9399009194443408</v>
       </c>
       <c r="H13">
-        <v>0.11635515804889</v>
+        <v>0.1158417171739785</v>
       </c>
       <c r="I13">
-        <v>0.003584870873843293</v>
+        <v>0.003195640156677726</v>
       </c>
       <c r="J13">
-        <v>0.6849576714681831</v>
+        <v>0.4808570889995565</v>
       </c>
       <c r="K13">
-        <v>0.6838663920364141</v>
+        <v>0.5365477835210797</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2056649537164539</v>
       </c>
       <c r="M13">
-        <v>1.779572351268854</v>
+        <v>0.2012931567631497</v>
       </c>
       <c r="N13">
-        <v>0.05290202004044531</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.228674861105624</v>
+        <v>1.695531787530001</v>
       </c>
       <c r="P13">
-        <v>1.062680595537444</v>
+        <v>0.05963784412571727</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2122330413009159</v>
+      </c>
+      <c r="R13">
+        <v>0.9551411879990059</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.525167654423683</v>
+        <v>1.381676674372329</v>
       </c>
       <c r="C14">
-        <v>0.3382655514421629</v>
+        <v>0.3605580021017261</v>
       </c>
       <c r="D14">
-        <v>0.3161105710739207</v>
+        <v>0.3165090867086491</v>
       </c>
       <c r="E14">
-        <v>0.03895903357319952</v>
+        <v>0.03935550155122947</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9537310575087901</v>
+        <v>0.8554415999086729</v>
       </c>
       <c r="H14">
-        <v>0.1661546844655959</v>
+        <v>0.1655344774649592</v>
       </c>
       <c r="I14">
-        <v>0.004084803327917719</v>
+        <v>0.003549031342454434</v>
       </c>
       <c r="J14">
-        <v>0.6422878473405973</v>
+        <v>0.472711770265974</v>
       </c>
       <c r="K14">
-        <v>0.6312245278028712</v>
+        <v>0.5023740003558785</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1949679741263601</v>
       </c>
       <c r="M14">
-        <v>1.723503215040182</v>
+        <v>0.1859298786951058</v>
       </c>
       <c r="N14">
-        <v>0.03287826067946042</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1962219471000033</v>
+        <v>1.650382631935997</v>
       </c>
       <c r="P14">
-        <v>1.034967003069475</v>
+        <v>0.0381656047282064</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1822828072714557</v>
+      </c>
+      <c r="R14">
+        <v>0.9472652577354745</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.494909458522812</v>
+        <v>1.357625343844148</v>
       </c>
       <c r="C15">
-        <v>0.3379482919689281</v>
+        <v>0.3606498184637417</v>
       </c>
       <c r="D15">
-        <v>0.3124796012881461</v>
+        <v>0.3129074528031452</v>
       </c>
       <c r="E15">
-        <v>0.04050694553075473</v>
+        <v>0.04109927076117437</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9292275548498026</v>
+        <v>0.8284355222004649</v>
       </c>
       <c r="H15">
-        <v>0.1788761814689224</v>
+        <v>0.1782039150396031</v>
       </c>
       <c r="I15">
-        <v>0.00443790361189933</v>
+        <v>0.0038484206579108</v>
       </c>
       <c r="J15">
-        <v>0.6306437569091372</v>
+        <v>0.4759702092747489</v>
       </c>
       <c r="K15">
-        <v>0.6173383990375569</v>
+        <v>0.4945306446552848</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.192832017144891</v>
       </c>
       <c r="M15">
-        <v>1.698015817755277</v>
+        <v>0.1819409640563165</v>
       </c>
       <c r="N15">
-        <v>0.02916349588716116</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1873005186640526</v>
+        <v>1.630011196531711</v>
       </c>
       <c r="P15">
-        <v>1.031406932398138</v>
+        <v>0.03415084963196513</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1741821879330914</v>
+      </c>
+      <c r="R15">
+        <v>0.9487101135314515</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.402122143778001</v>
+        <v>1.282510524760767</v>
       </c>
       <c r="C16">
-        <v>0.3157738059717019</v>
+        <v>0.3421933666652137</v>
       </c>
       <c r="D16">
-        <v>0.2919852788506034</v>
+        <v>0.2925205257344885</v>
       </c>
       <c r="E16">
-        <v>0.03813730946783878</v>
+        <v>0.03918738003640065</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9058913967376157</v>
+        <v>0.7805159841275753</v>
       </c>
       <c r="H16">
-        <v>0.1672438107164709</v>
+        <v>0.1663070601719312</v>
       </c>
       <c r="I16">
-        <v>0.005706848711263923</v>
+        <v>0.004750524104826681</v>
       </c>
       <c r="J16">
-        <v>0.623619233260257</v>
+        <v>0.5256734764997191</v>
       </c>
       <c r="K16">
-        <v>0.6124657693840447</v>
+        <v>0.5026970653705476</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1987598328418549</v>
       </c>
       <c r="M16">
-        <v>1.589664860337422</v>
+        <v>0.1809331131016307</v>
       </c>
       <c r="N16">
-        <v>0.02894170756508707</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1770268559781982</v>
+        <v>1.542036802377055</v>
       </c>
       <c r="P16">
-        <v>1.059017038926015</v>
+        <v>0.0343026830694253</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.165835478667276</v>
+      </c>
+      <c r="R16">
+        <v>0.9782533336746777</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.372886982564978</v>
+        <v>1.256890097850572</v>
       </c>
       <c r="C17">
-        <v>0.295488053063039</v>
+        <v>0.3238470728226446</v>
       </c>
       <c r="D17">
-        <v>0.2795595186531159</v>
+        <v>0.2801303223246094</v>
       </c>
       <c r="E17">
-        <v>0.03295273769976514</v>
+        <v>0.03386971767035263</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9333724476528857</v>
+        <v>0.7915571287000347</v>
       </c>
       <c r="H17">
-        <v>0.1300918002422975</v>
+        <v>0.1290080633937265</v>
       </c>
       <c r="I17">
-        <v>0.006469653768062855</v>
+        <v>0.005310171944132414</v>
       </c>
       <c r="J17">
-        <v>0.6406609585181116</v>
+        <v>0.5641921052138343</v>
       </c>
       <c r="K17">
-        <v>0.6361351888675557</v>
+        <v>0.5262577870857967</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.209113421616717</v>
       </c>
       <c r="M17">
-        <v>1.536472260510891</v>
+        <v>0.1876520754716822</v>
       </c>
       <c r="N17">
-        <v>0.03778005434634224</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.185895145934218</v>
+        <v>1.496353617625516</v>
       </c>
       <c r="P17">
-        <v>1.094220736559333</v>
+        <v>0.04420189685576403</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1748325848822105</v>
+      </c>
+      <c r="R17">
+        <v>1.006083302057609</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.397137282219546</v>
+        <v>1.274633194804579</v>
       </c>
       <c r="C18">
-        <v>0.2741046080590905</v>
+        <v>0.3042442625891795</v>
       </c>
       <c r="D18">
-        <v>0.2725536098466677</v>
+        <v>0.2731197960549565</v>
       </c>
       <c r="E18">
-        <v>0.02782328786324184</v>
+        <v>0.02807482083635637</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.01225899274958</v>
+        <v>0.8506553698231585</v>
       </c>
       <c r="H18">
-        <v>0.0773403661144485</v>
+        <v>0.07623157112966794</v>
       </c>
       <c r="I18">
-        <v>0.006421127723393205</v>
+        <v>0.005164439536448739</v>
       </c>
       <c r="J18">
-        <v>0.6825408517958635</v>
+        <v>0.6092022521186493</v>
       </c>
       <c r="K18">
-        <v>0.6908637885698923</v>
+        <v>0.5707384731944884</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2264434852887298</v>
       </c>
       <c r="M18">
-        <v>1.524899254281848</v>
+        <v>0.2034003656748702</v>
       </c>
       <c r="N18">
-        <v>0.06324799913626578</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2138656873671252</v>
+        <v>1.485524778086528</v>
       </c>
       <c r="P18">
-        <v>1.146825534953088</v>
+        <v>0.07162553847790321</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2015806490956713</v>
+      </c>
+      <c r="R18">
+        <v>1.041775193811304</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.457575822666172</v>
+        <v>1.321840759300756</v>
       </c>
       <c r="C19">
-        <v>0.2557592498505414</v>
+        <v>0.2878825630544668</v>
       </c>
       <c r="D19">
-        <v>0.2703539914049173</v>
+        <v>0.2708894874040055</v>
       </c>
       <c r="E19">
-        <v>0.02768831845840269</v>
+        <v>0.02683649837103852</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.124512844455722</v>
+        <v>0.9390159124162807</v>
       </c>
       <c r="H19">
-        <v>0.03152758396785771</v>
+        <v>0.03051458007880825</v>
       </c>
       <c r="I19">
-        <v>0.006266539492060019</v>
+        <v>0.005122931666303288</v>
       </c>
       <c r="J19">
-        <v>0.7400127231464779</v>
+        <v>0.6590442411893207</v>
       </c>
       <c r="K19">
-        <v>0.7658361237261744</v>
+        <v>0.6285334153179605</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.248012588778824</v>
       </c>
       <c r="M19">
-        <v>1.545549453456147</v>
+        <v>0.2251182151893545</v>
       </c>
       <c r="N19">
-        <v>0.1123406175351462</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2570320580661338</v>
+        <v>1.50290530707062</v>
       </c>
       <c r="P19">
-        <v>1.214984446828844</v>
+        <v>0.1234748889311135</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.242518691697768</v>
+      </c>
+      <c r="R19">
+        <v>1.085849545283612</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.628368711456545</v>
+        <v>1.459949697304808</v>
       </c>
       <c r="C20">
-        <v>0.2429946229502491</v>
+        <v>0.277984714230513</v>
       </c>
       <c r="D20">
-        <v>0.281717698838662</v>
+        <v>0.2821448864899594</v>
       </c>
       <c r="E20">
-        <v>0.04061996032701209</v>
+        <v>0.03764711780163932</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.337521176100807</v>
+        <v>1.116661507389011</v>
       </c>
       <c r="H20">
-        <v>0.003277323646037278</v>
+        <v>0.002635857232005989</v>
       </c>
       <c r="I20">
-        <v>0.004882250091052143</v>
+        <v>0.004193546416095373</v>
       </c>
       <c r="J20">
-        <v>0.844718111592897</v>
+        <v>0.7226342958963983</v>
       </c>
       <c r="K20">
-        <v>0.9023216052974661</v>
+        <v>0.7266654618524484</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2812295475113018</v>
       </c>
       <c r="M20">
-        <v>1.659798897767359</v>
+        <v>0.2660713317103856</v>
       </c>
       <c r="N20">
-        <v>0.2242298152150255</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3425904256071419</v>
+        <v>1.603006887360351</v>
       </c>
       <c r="P20">
-        <v>1.326970937946719</v>
+        <v>0.2401652465715927</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.322833378414515</v>
+      </c>
+      <c r="R20">
+        <v>1.14979635707887</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.842892318030579</v>
+        <v>1.628956675985734</v>
       </c>
       <c r="C21">
-        <v>0.273467635663323</v>
+        <v>0.3029949867318464</v>
       </c>
       <c r="D21">
-        <v>0.3189713556636349</v>
+        <v>0.3191454172218045</v>
       </c>
       <c r="E21">
-        <v>0.04635159227902186</v>
+        <v>0.04312702171905158</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.452758793004165</v>
+        <v>1.286433842454244</v>
       </c>
       <c r="H21">
-        <v>0.001403527598931698</v>
+        <v>0.001154172734197934</v>
       </c>
       <c r="I21">
-        <v>0.003047604086616751</v>
+        <v>0.002980383594209712</v>
       </c>
       <c r="J21">
-        <v>0.893897513026559</v>
+        <v>0.6126406223011855</v>
       </c>
       <c r="K21">
-        <v>0.9588989002697019</v>
+        <v>0.7372595549308656</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.27586824737174</v>
       </c>
       <c r="M21">
-        <v>1.878003501542622</v>
+        <v>0.2816125711947777</v>
       </c>
       <c r="N21">
-        <v>0.2604186053249151</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3911468878661069</v>
+        <v>1.776413085166809</v>
       </c>
       <c r="P21">
-        <v>1.315175718139628</v>
+        <v>0.276642923157965</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3647448491065006</v>
+      </c>
+      <c r="R21">
+        <v>1.099217807141059</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.981789544489288</v>
+        <v>1.737038596493022</v>
       </c>
       <c r="C22">
-        <v>0.2938703544630243</v>
+        <v>0.3188562761072831</v>
       </c>
       <c r="D22">
-        <v>0.3435884580640192</v>
+        <v>0.3435610898062009</v>
       </c>
       <c r="E22">
-        <v>0.04930050242044359</v>
+        <v>0.04607903415341674</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.524491474790892</v>
+        <v>1.404634727766165</v>
       </c>
       <c r="H22">
-        <v>0.000676726128486127</v>
+        <v>0.0005829097204530509</v>
       </c>
       <c r="I22">
-        <v>0.001997537071265043</v>
+        <v>0.002124160437628753</v>
       </c>
       <c r="J22">
-        <v>0.9242860074487851</v>
+        <v>0.5402129210839064</v>
       </c>
       <c r="K22">
-        <v>0.9934110024121736</v>
+        <v>0.7407317789074668</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2712135111939062</v>
       </c>
       <c r="M22">
-        <v>2.020182267300783</v>
+        <v>0.2907958204877872</v>
       </c>
       <c r="N22">
-        <v>0.2779423931014406</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4196519097122646</v>
+        <v>1.88655125536539</v>
       </c>
       <c r="P22">
-        <v>1.304795497665793</v>
+        <v>0.2940214091081117</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3887649073920443</v>
+      </c>
+      <c r="R22">
+        <v>1.063787356188342</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.911214082315581</v>
+        <v>1.684607658376052</v>
       </c>
       <c r="C23">
-        <v>0.2819986505223682</v>
+        <v>0.3107174093860294</v>
       </c>
       <c r="D23">
-        <v>0.3304322744800032</v>
+        <v>0.3305261558241455</v>
       </c>
       <c r="E23">
-        <v>0.04779846754978401</v>
+        <v>0.04448548603195235</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.490543850870438</v>
+        <v>1.334980796238824</v>
       </c>
       <c r="H23">
-        <v>0.001025110406221552</v>
+        <v>0.0008536287165958889</v>
       </c>
       <c r="I23">
-        <v>0.002189534633049384</v>
+        <v>0.00215968479124129</v>
       </c>
       <c r="J23">
-        <v>0.9102450967654363</v>
+        <v>0.5940209647437911</v>
       </c>
       <c r="K23">
-        <v>0.9781850778292167</v>
+        <v>0.7442450768134634</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2755351056349582</v>
       </c>
       <c r="M23">
-        <v>1.94540251988991</v>
+        <v>0.2880454849747878</v>
       </c>
       <c r="N23">
-        <v>0.2683656681637814</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4048477029819537</v>
+        <v>1.832720779882806</v>
       </c>
       <c r="P23">
-        <v>1.31338059873201</v>
+        <v>0.2846676992993764</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3766941875668905</v>
+      </c>
+      <c r="R23">
+        <v>1.087130820778313</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.638787427839191</v>
+        <v>1.468685238335638</v>
       </c>
       <c r="C24">
-        <v>0.2394537954930769</v>
+        <v>0.2744507076752427</v>
       </c>
       <c r="D24">
-        <v>0.2811596451963823</v>
+        <v>0.2815828664906661</v>
       </c>
       <c r="E24">
-        <v>0.04207096563273183</v>
+        <v>0.03893055016471081</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.356909867598432</v>
+        <v>1.132033042914486</v>
       </c>
       <c r="H24">
-        <v>0.003061241392140701</v>
+        <v>0.002433016060339521</v>
       </c>
       <c r="I24">
-        <v>0.004323149798555193</v>
+        <v>0.003544960375087669</v>
       </c>
       <c r="J24">
-        <v>0.8546096499385669</v>
+        <v>0.7320591275849608</v>
       </c>
       <c r="K24">
-        <v>0.9161334313259246</v>
+        <v>0.7377947953424737</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2854190501110452</v>
       </c>
       <c r="M24">
-        <v>1.661929034207816</v>
+        <v>0.2702141930763062</v>
       </c>
       <c r="N24">
-        <v>0.2326301282561474</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3482674494737523</v>
+        <v>1.604948650503701</v>
       </c>
       <c r="P24">
-        <v>1.341987237675504</v>
+        <v>0.2489248473728765</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.328227541847248</v>
+      </c>
+      <c r="R24">
+        <v>1.160488584293937</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.346161831350571</v>
+        <v>1.213577747589142</v>
       </c>
       <c r="C25">
-        <v>0.1950811883846342</v>
+        <v>0.2216724301096633</v>
       </c>
       <c r="D25">
-        <v>0.2290250621801988</v>
+        <v>0.2295724956757397</v>
       </c>
       <c r="E25">
-        <v>0.03602708443304081</v>
+        <v>0.03383050504621377</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.216905125320977</v>
+        <v>1.02469834416641</v>
       </c>
       <c r="H25">
-        <v>0.006635318260450274</v>
+        <v>0.005311299584196849</v>
       </c>
       <c r="I25">
-        <v>0.008386423693085732</v>
+        <v>0.006464852945832433</v>
       </c>
       <c r="J25">
-        <v>0.7968982392406332</v>
+        <v>0.7017955094501502</v>
       </c>
       <c r="K25">
-        <v>0.8509413802082904</v>
+        <v>0.7008369460080033</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2850519901213246</v>
       </c>
       <c r="M25">
-        <v>1.359043870768062</v>
+        <v>0.2414913686637519</v>
       </c>
       <c r="N25">
-        <v>0.1943772411474001</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2875165243537694</v>
+        <v>1.318388568885211</v>
       </c>
       <c r="P25">
-        <v>1.375103032246805</v>
+        <v>0.2090761588630983</v>
       </c>
       <c r="Q25">
+        <v>0.2720601010353541</v>
+      </c>
+      <c r="R25">
+        <v>1.213376882485875</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
